--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V70"/>
+  <dimension ref="A1:V72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.83</v>
+        <v>2.73</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.83</v>
+        <v>3.67</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:11</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.41</v>
+        <v>2.67</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:13</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.73</v>
+        <v>1.83</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:11</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.03</v>
+        <v>3.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>4.41</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:13</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R31" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -3333,46 +3333,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.83</v>
+        <v>6.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.03</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.85</v>
+        <v>4.83</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.47</v>
+        <v>1.51</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kayserispor/Otbl4QxL/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-galatasaray/GGft6n88/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6.25</v>
+        <v>1.83</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.03</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.83</v>
+        <v>3.85</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.51</v>
+        <v>4.47</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-galatasaray/GGft6n88/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kayserispor/Otbl4QxL/</t>
         </is>
       </c>
     </row>
@@ -6894,6 +6894,190 @@
       <c r="V70" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-basaksehir/veHk67P5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>1</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L71" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="N71" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P71" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q71" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R71" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U71" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="V71" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-trabzonspor/CMCqOuoi/</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45205.79166666666</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>1</v>
+      </c>
+      <c r="J72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L72" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="N72" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P72" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="R72" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="U72" t="inlineStr">
+        <is>
+          <t>06/10/2023 18:52</t>
+        </is>
+      </c>
+      <c r="V72" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-f-karagumruk/AHY0ad8j/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V72"/>
+  <dimension ref="A1:V74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.73</v>
+        <v>1.83</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:11</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.03</v>
+        <v>3.87</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.67</v>
+        <v>4.41</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:13</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.83</v>
+        <v>2.73</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.83</v>
+        <v>3.67</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:11</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.41</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:13</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
         </is>
       </c>
     </row>
@@ -849,71 +849,71 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J5" t="n">
-        <v>6.3</v>
+        <v>1.98</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="L5" t="n">
-        <v>5.65</v>
+        <v>2.26</v>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>12/08/2023 20:44</t>
+          <t>12/08/2023 20:42</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>5.1</v>
+        <v>3.96</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>08/08/2023 15:12</t>
         </is>
       </c>
       <c r="P5" t="n">
-        <v>4.75</v>
+        <v>3.58</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
+          <t>12/08/2023 20:36</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>08/08/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
           <t>12/08/2023 20:42</t>
         </is>
       </c>
-      <c r="R5" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>06/08/2023 21:12</t>
-        </is>
-      </c>
-      <c r="T5" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>12/08/2023 20:44</t>
-        </is>
-      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-galatasaray/8CMMOcJB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-hatayspor/n3LQNHYH/</t>
         </is>
       </c>
     </row>
@@ -941,71 +941,71 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.98</v>
+        <v>6.3</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L6" t="n">
-        <v>2.26</v>
+        <v>5.65</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
+          <t>12/08/2023 20:44</t>
+        </is>
+      </c>
+      <c r="N6" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>06/08/2023 21:12</t>
+        </is>
+      </c>
+      <c r="P6" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
           <t>12/08/2023 20:42</t>
         </is>
       </c>
-      <c r="N6" t="n">
-        <v>3.96</v>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>08/08/2023 15:12</t>
-        </is>
-      </c>
-      <c r="P6" t="n">
-        <v>3.58</v>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>12/08/2023 20:36</t>
-        </is>
-      </c>
       <c r="R6" t="n">
-        <v>3.64</v>
+        <v>1.45</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>08/08/2023 15:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>3.27</v>
+        <v>1.55</v>
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>12/08/2023 20:42</t>
+          <t>12/08/2023 20:44</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-hatayspor/n3LQNHYH/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-galatasaray/8CMMOcJB/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.21</v>
+        <v>3.89</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.27</v>
+        <v>4.11</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.89</v>
+        <v>4.21</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.11</v>
+        <v>3.27</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -7078,6 +7078,190 @@
       <c r="V72" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-f-karagumruk/AHY0ad8j/</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45206.52083333334</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>2</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>3</v>
+      </c>
+      <c r="J73" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="L73" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N73" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="P73" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="Q73" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S73" t="inlineStr">
+        <is>
+          <t>05/10/2023 01:42</t>
+        </is>
+      </c>
+      <c r="T73" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U73" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V73" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-sivasspor/vZsV4IpT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>3</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L74" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P74" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R74" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>02/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="U74" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="V74" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-kayserispor/Eo90KcpG/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V74"/>
+  <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.8</v>
+        <v>5.55</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.6</v>
+        <v>5.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.72</v>
+        <v>7.3</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.12</v>
+        <v>8.02</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>5.55</v>
+        <v>4.8</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.38</v>
+        <v>4.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.3</v>
+        <v>5.72</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>8.02</v>
+        <v>5.12</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -7262,6 +7262,190 @@
       <c r="V74" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-kayserispor/Eo90KcpG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>2</v>
+      </c>
+      <c r="J75" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L75" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P75" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R75" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>30/09/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="U75" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V75" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45206.75</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L76" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R76" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="S76" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T76" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="U76" t="inlineStr">
+        <is>
+          <t>07/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V76" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V76"/>
+  <dimension ref="A1:V78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -7446,6 +7446,190 @@
       <c r="V76" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45207.52083333334</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G77" t="n">
+        <v>1</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="L77" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R77" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="U77" t="inlineStr">
+        <is>
+          <t>08/10/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V77" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-samsunspor/hx84JHaM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45207.625</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G78" t="n">
+        <v>2</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L78" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N78" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P78" t="n">
+        <v>6.51</v>
+      </c>
+      <c r="Q78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="R78" t="n">
+        <v>9.220000000000001</v>
+      </c>
+      <c r="S78" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T78" t="n">
+        <v>13.12</v>
+      </c>
+      <c r="U78" t="inlineStr">
+        <is>
+          <t>08/10/2023 14:32</t>
+        </is>
+      </c>
+      <c r="V78" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-istanbulspor-as/dAEeLwV9/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V78"/>
+  <dimension ref="A1:V80"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.89</v>
+        <v>4.21</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.11</v>
+        <v>3.27</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.21</v>
+        <v>3.89</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.27</v>
+        <v>4.11</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.55</v>
+        <v>4.8</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.38</v>
+        <v>4.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>7.3</v>
+        <v>5.72</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>8.02</v>
+        <v>5.12</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.8</v>
+        <v>5.55</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.6</v>
+        <v>5.38</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>5.72</v>
+        <v>7.3</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.12</v>
+        <v>8.02</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -7630,6 +7630,190 @@
       <c r="V78" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-istanbulspor-as/dAEeLwV9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G79" t="n">
+        <v>3</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L79" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N79" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P79" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q79" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R79" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="S79" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T79" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U79" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V79" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45207.75</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G80" t="n">
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>2</v>
+      </c>
+      <c r="J80" t="n">
+        <v>4.89</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L80" t="n">
+        <v>6.87</v>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N80" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P80" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R80" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>01/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T80" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>08/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V80"/>
+  <dimension ref="A1:V83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -7814,6 +7814,282 @@
       <c r="V80" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45220.52083333334</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G81" t="n">
+        <v>3</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L81" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N81" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P81" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R81" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T81" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-rizespor/na78IyFS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G82" t="n">
+        <v>1</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L82" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N82" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P82" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R82" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T82" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G83" t="n">
+        <v>1</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>2</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L83" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N83" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P83" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:54</t>
+        </is>
+      </c>
+      <c r="R83" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T83" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V83"/>
+  <dimension ref="A1:V84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,34 +1501,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1536,28 +1536,28 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.92</v>
+        <v>3.12</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1628,28 +1628,28 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.12</v>
+        <v>3.92</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.79</v>
+        <v>2.85</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.59</v>
+        <v>4.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>14/08/2023 20:12</t>
+          <t>15/08/2023 13:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.89</v>
+        <v>4.13</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>21/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>21/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>14/08/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>21/08/2023 19:53</t>
-        </is>
-      </c>
       <c r="R20" t="n">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>14/08/2023 20:12</t>
+          <t>15/08/2023 13:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>21/08/2023 19:59</t>
+          <t>21/08/2023 19:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-adanademirspor/O2BwjzIA/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-fenerbahce/I5zvVYuo/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.62</v>
+        <v>2.59</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>15/08/2023 13:42</t>
+          <t>14/08/2023 20:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.13</v>
+        <v>2.89</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>21/08/2023 19:58</t>
+          <t>21/08/2023 19:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>15/08/2023 13:42</t>
+          <t>14/08/2023 20:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>21/08/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>14/08/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>21/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>15/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>21/08/2023 19:58</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-fenerbahce/I5zvVYuo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-adanademirspor/O2BwjzIA/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,32 +2636,32 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -8090,6 +8090,98 @@
       <c r="V83" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45220.75</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="G84" t="n">
+        <v>2</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N84" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P84" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R84" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T84" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="U84" t="inlineStr">
+        <is>
+          <t>21/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V84" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-besiktas/6qluDFxj/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V84"/>
+  <dimension ref="A1:V90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,34 +1501,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1536,28 +1536,28 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.12</v>
+        <v>3.92</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.79</v>
+        <v>2.85</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1628,28 +1628,28 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.92</v>
+        <v>3.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.59</v>
+        <v>5.28</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.43</v>
+        <v>4.14</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.79</v>
+        <v>6.67</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.85</v>
+        <v>4.51</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:09</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.28</v>
+        <v>3.59</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.67</v>
+        <v>2.79</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.51</v>
+        <v>2.85</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>4.62</v>
+        <v>2.59</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>15/08/2023 13:42</t>
+          <t>14/08/2023 20:12</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>4.13</v>
+        <v>2.89</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>21/08/2023 19:58</t>
+          <t>21/08/2023 19:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>15/08/2023 13:42</t>
+          <t>14/08/2023 20:12</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
+          <t>21/08/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>14/08/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
           <t>21/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R20" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>15/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T20" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>21/08/2023 19:58</t>
-        </is>
-      </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-fenerbahce/I5zvVYuo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-adanademirspor/O2BwjzIA/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.59</v>
+        <v>4.62</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>14/08/2023 20:12</t>
+          <t>15/08/2023 13:42</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>2.89</v>
+        <v>4.13</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
+          <t>21/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>15/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
           <t>21/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N21" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>14/08/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>21/08/2023 19:53</t>
-        </is>
-      </c>
       <c r="R21" t="n">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>14/08/2023 20:12</t>
+          <t>15/08/2023 13:42</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>21/08/2023 19:59</t>
+          <t>21/08/2023 19:58</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-adanademirspor/O2BwjzIA/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-fenerbahce/I5zvVYuo/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:56</t>
+          <t>18/09/2023 18:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.1</v>
+        <v>3.44</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:51</t>
+          <t>18/09/2023 18:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.71</v>
+        <v>2.13</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:57</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:55</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.79</v>
+        <v>4.57</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.13</v>
+        <v>4.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:57</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:55</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.57</v>
+        <v>1.79</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
         </is>
       </c>
     </row>
@@ -8182,6 +8182,558 @@
       <c r="V84" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-besiktas/6qluDFxj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45221.52083333334</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G85" t="n">
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>1</v>
+      </c>
+      <c r="J85" t="n">
+        <v>2</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L85" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:10</t>
+        </is>
+      </c>
+      <c r="N85" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P85" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:10</t>
+        </is>
+      </c>
+      <c r="R85" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S85" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T85" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="U85" t="inlineStr">
+        <is>
+          <t>22/10/2023 12:10</t>
+        </is>
+      </c>
+      <c r="V85" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-kasimpasa/tMSsXzUL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45221.625</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G86" t="n">
+        <v>2</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>1</v>
+      </c>
+      <c r="J86" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L86" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N86" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P86" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R86" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S86" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T86" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="U86" t="inlineStr">
+        <is>
+          <t>22/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V86" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-ankaragucu/OKbzEeNq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45221.75</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>4</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>2</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>17.77</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>22/10/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>2</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:00</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>3.79</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:00</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>10/10/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:00</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45222.79166666666</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>09/10/2023 16:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>23/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V90"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,34 +1501,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1536,28 +1536,28 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.92</v>
+        <v>3.12</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1628,28 +1628,28 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.12</v>
+        <v>3.92</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.79</v>
+        <v>2.85</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.28</v>
+        <v>3.59</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.67</v>
+        <v>2.79</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.51</v>
+        <v>2.85</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:09</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.59</v>
+        <v>5.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.43</v>
+        <v>4.14</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.79</v>
+        <v>6.67</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.85</v>
+        <v>4.51</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:09</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,32 +2636,32 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>22/08/2023 07:12</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 17:46</t>
+          <t>27/08/2023 18:13</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>22/08/2023 07:12</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 18:11</t>
+          <t>27/08/2023 18:12</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>22/08/2023 07:12</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>27/08/2023 18:11</t>
+          <t>27/08/2023 18:13</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-samsunspor/fkYAXR1q/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-ankaragucu/foI9hTw9/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>22/08/2023 07:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>27/08/2023 18:13</t>
+          <t>27/08/2023 17:46</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>22/08/2023 07:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>27/08/2023 18:12</t>
+          <t>27/08/2023 18:11</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>22/08/2023 07:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>27/08/2023 18:13</t>
+          <t>27/08/2023 18:11</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-ankaragucu/foI9hTw9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-samsunspor/fkYAXR1q/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:51</t>
+          <t>18/09/2023 18:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:56</t>
+          <t>18/09/2023 18:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.1</v>
+        <v>3.44</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.13</v>
+        <v>4.71</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:55</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.57</v>
+        <v>1.79</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.71</v>
+        <v>2.13</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:57</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.79</v>
+        <v>4.57</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8734,6 +8734,926 @@
       <c r="V90" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>1</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>2</v>
+      </c>
+      <c r="J91" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:56</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45226.79166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:59</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>22/10/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>27/10/2023 18:58</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>1</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>2</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:57</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-sivasspor/W4QPOCy2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45227.75</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>7.86</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:37</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:37</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>28/10/2023 17:37</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45228.58333333334</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>23/10/2023 19:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>29/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-trabzonspor/C03CnGT8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>0</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>22/10/2023 20:15</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45228.70833333334</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>7.87</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>10.56</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>6.22</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45229.75</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>2</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>0</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>30/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>30/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>30/10/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-gaziantep/KQ6KpfbL/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V100"/>
+  <dimension ref="A1:V101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9313,46 +9313,46 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,24 +9360,24 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J98" t="n">
-        <v>2.03</v>
+        <v>7.87</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.11</v>
+        <v>10.56</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.8</v>
+        <v>1.35</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,32 +9536,32 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9654,6 +9654,98 @@
       <c r="V100" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-gaziantep/KQ6KpfbL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45233.75</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
+        <v>2</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>7.31</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>11.06</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>28/10/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>12.12</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>03/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-kasimpasa/hz3dxW51/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V101"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,34 +1501,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1536,28 +1536,28 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.12</v>
+        <v>3.92</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.79</v>
+        <v>2.85</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1628,28 +1628,28 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.92</v>
+        <v>3.12</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R97" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
       <c r="J98" t="n">
-        <v>7.87</v>
+        <v>2.03</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>10.56</v>
+        <v>2.11</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.68</v>
+        <v>3.51</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>6.22</v>
+        <v>3.35</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9746,6 +9746,282 @@
       <c r="V101" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-kasimpasa/hz3dxW51/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45234.47916666666</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>2</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>4</v>
+      </c>
+      <c r="J102" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-pendikspor/COoawCje/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45234.58333333334</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>04/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-hatayspor/WQ10yjL7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45234.70833333334</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>3</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:50</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>29/10/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>7.93</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>04/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-trabzonspor/IL6Ktocm/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9313,46 +9313,46 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,24 +9360,24 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R98" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,282 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-trabzonspor/IL6Ktocm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45235.47916666666</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>1</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:05</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:05</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>29/10/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>05/11/2023 09:05</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-adanademirspor/neBOu5Cg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>3</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>29/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45235.58333333334</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>05/11/2023 13:31</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V107"/>
+  <dimension ref="A1:V108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>3.59</v>
+        <v>5.28</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>3.43</v>
+        <v>4.14</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>2.79</v>
+        <v>6.67</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>2.85</v>
+        <v>4.51</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:09</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>5.28</v>
+        <v>3.59</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>4.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>6.67</v>
+        <v>2.79</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>4.51</v>
+        <v>2.85</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:09</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2781,71 +2781,71 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I26" t="n">
         <v>1</v>
       </c>
       <c r="J26" t="n">
-        <v>2.51</v>
+        <v>2.32</v>
       </c>
       <c r="K26" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>22/08/2023 07:12</t>
         </is>
       </c>
       <c r="L26" t="n">
-        <v>2.48</v>
+        <v>2.68</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>27/08/2023 18:13</t>
+          <t>27/08/2023 17:46</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>3.65</v>
+        <v>3.62</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>22/08/2023 07:12</t>
         </is>
       </c>
       <c r="P26" t="n">
-        <v>3.38</v>
+        <v>3.35</v>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>27/08/2023 18:12</t>
+          <t>27/08/2023 18:11</t>
         </is>
       </c>
       <c r="R26" t="n">
-        <v>2.78</v>
+        <v>3.09</v>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>21/08/2023 20:12</t>
+          <t>22/08/2023 07:12</t>
         </is>
       </c>
       <c r="T26" t="n">
-        <v>3.05</v>
+        <v>2.81</v>
       </c>
       <c r="U26" t="inlineStr">
         <is>
-          <t>27/08/2023 18:13</t>
+          <t>27/08/2023 18:11</t>
         </is>
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-ankaragucu/foI9hTw9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-samsunspor/fkYAXR1q/</t>
         </is>
       </c>
     </row>
@@ -2873,71 +2873,71 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I27" t="n">
         <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>2.32</v>
+        <v>2.51</v>
       </c>
       <c r="K27" t="inlineStr">
         <is>
-          <t>22/08/2023 07:12</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="L27" t="n">
-        <v>2.68</v>
+        <v>2.48</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>27/08/2023 17:46</t>
+          <t>27/08/2023 18:13</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>3.62</v>
+        <v>3.65</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>22/08/2023 07:12</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="P27" t="n">
-        <v>3.35</v>
+        <v>3.38</v>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>27/08/2023 18:11</t>
+          <t>27/08/2023 18:12</t>
         </is>
       </c>
       <c r="R27" t="n">
-        <v>3.09</v>
+        <v>2.78</v>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>22/08/2023 07:12</t>
+          <t>21/08/2023 20:12</t>
         </is>
       </c>
       <c r="T27" t="n">
-        <v>2.81</v>
+        <v>3.05</v>
       </c>
       <c r="U27" t="inlineStr">
         <is>
-          <t>27/08/2023 18:11</t>
+          <t>27/08/2023 18:13</t>
         </is>
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-samsunspor/fkYAXR1q/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-ankaragucu/foI9hTw9/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -10298,6 +10298,98 @@
       <c r="V107" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45235.70833333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>3</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:51</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>05/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-besiktas/vV7GsRss/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V108"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>2.03</v>
+        <v>7.87</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.11</v>
+        <v>10.56</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.8</v>
+        <v>1.35</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9405,46 +9405,46 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,24 +9452,24 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,32 +9536,32 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -10390,6 +10390,190 @@
       <c r="V108" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-besiktas/vV7GsRss/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45236.75</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:52</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>30/10/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-rizespor/pUkr0Zc8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45236.75</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>1</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>30/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>06/11/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-alanyaspor/YXnevhyk/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.56</v>
+        <v>4.99</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.99</v>
+        <v>2.56</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.19</v>
+        <v>2.91</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R98" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9497,46 +9497,46 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
@@ -9544,24 +9544,24 @@
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,98 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-alanyaspor/YXnevhyk/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45238.75</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>2</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>03/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>03/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>03/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>03/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>03/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>03/09/2023 18:14</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-istanbulspor-as/EBGcs3V7/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G10" t="n">
+        <v>2</v>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>1</v>
-      </c>
       <c r="J10" t="n">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>5.49</v>
+        <v>2.93</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:59</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>4.18</v>
+        <v>3.53</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>4.51</v>
+        <v>3.44</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>1.6</v>
+        <v>2.53</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" t="n">
-        <v>2.67</v>
+        <v>3.78</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.93</v>
+        <v>5.49</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.53</v>
+        <v>4.18</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.44</v>
+        <v>4.51</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.53</v>
+        <v>1.6</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J46" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:56</t>
+          <t>18/09/2023 18:51</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>4.1</v>
+        <v>3.44</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:51</t>
+          <t>18/09/2023 18:56</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.99</v>
+        <v>2.56</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.19</v>
+        <v>2.91</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.56</v>
+        <v>4.99</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>2</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
       <c r="J97" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,32 +9352,32 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R97" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S97" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T97" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U97" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9405,46 +9405,46 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,24 +9452,24 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.03</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.11</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.8</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,190 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-istanbulspor-as/EBGcs3V7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>4</v>
+      </c>
+      <c r="J112" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:55</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45240.75</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>2</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>1</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:53</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:46</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>05/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>6.11</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>10/11/2023 17:46</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V113"/>
+  <dimension ref="A1:V116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,22 +1309,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2.67</v>
+        <v>3.78</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
@@ -1332,15 +1332,15 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.93</v>
+        <v>5.49</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.53</v>
+        <v>4.18</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1348,15 +1348,15 @@
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.44</v>
+        <v>4.51</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.67</v>
+        <v>1.86</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
@@ -1364,16 +1364,16 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.53</v>
+        <v>1.6</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>14/08/2023 19:58</t>
+          <t>14/08/2023 19:55</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>1</v>
-      </c>
       <c r="J11" t="n">
-        <v>3.78</v>
+        <v>2.67</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>5.49</v>
+        <v>2.93</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:59</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.18</v>
+        <v>3.53</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.51</v>
+        <v>3.44</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>1.86</v>
+        <v>2.67</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>1.6</v>
+        <v>2.53</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>14/08/2023 19:55</t>
+          <t>14/08/2023 19:58</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-besiktas/dElqtaln/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-basaksehir/t2EZLe3U/</t>
         </is>
       </c>
     </row>
@@ -1769,71 +1769,71 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.44</v>
+        <v>2.54</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1.76</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:43</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>5.28</v>
+        <v>3.59</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="P15" t="n">
-        <v>4.14</v>
+        <v>3.43</v>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 17:05</t>
         </is>
       </c>
       <c r="R15" t="n">
-        <v>6.67</v>
+        <v>2.79</v>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>13/08/2023 01:12</t>
+          <t>13/08/2023 09:12</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>4.51</v>
+        <v>2.85</v>
       </c>
       <c r="U15" t="inlineStr">
         <is>
-          <t>19/08/2023 20:44</t>
+          <t>19/08/2023 20:09</t>
         </is>
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
         </is>
       </c>
     </row>
@@ -1861,71 +1861,71 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.54</v>
+        <v>1.44</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2.63</v>
+        <v>1.76</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:43</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>3.59</v>
+        <v>5.28</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="P16" t="n">
-        <v>3.43</v>
+        <v>4.14</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>19/08/2023 17:05</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="R16" t="n">
-        <v>2.79</v>
+        <v>6.67</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>13/08/2023 09:12</t>
+          <t>13/08/2023 01:12</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>2.85</v>
+        <v>4.51</v>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>19/08/2023 20:09</t>
+          <t>19/08/2023 20:44</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kasimpasa/rVz5yy3H/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-trabzonspor/GdlCZEXT/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G71" t="n">
+        <v>2</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
         <v>1</v>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Trabzonspor</t>
-        </is>
-      </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
       <c r="J71" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>01/10/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:52</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>01/10/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.91</v>
+        <v>3.39</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:52</t>
         </is>
       </c>
       <c r="R71" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S71" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T71" t="n">
         <v>3.13</v>
       </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>01/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T71" t="n">
-        <v>3.6</v>
-      </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:52</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-trabzonspor/CMCqOuoi/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-f-karagumruk/AHY0ad8j/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>01/10/2023 17:13</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 18:52</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>01/10/2023 17:13</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.39</v>
+        <v>3.91</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 18:52</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="R72" t="n">
-        <v>4.1</v>
+        <v>3.13</v>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>01/10/2023 17:13</t>
         </is>
       </c>
       <c r="T72" t="n">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 18:52</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-f-karagumruk/AHY0ad8j/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-trabzonspor/CMCqOuoi/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -10850,6 +10850,282 @@
       <c r="V113" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45241.47916666666</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>3</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>4</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:21</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:18</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:21</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-kayserispor/E72uxNBI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>3</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45241.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>06/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>06/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>06/11/2023 04:12</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>11/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V116"/>
+  <dimension ref="A1:V117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9313,22 +9313,22 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -9336,7 +9336,7 @@
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
@@ -9344,7 +9344,7 @@
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
@@ -9352,15 +9352,15 @@
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
@@ -9368,7 +9368,7 @@
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
@@ -9377,7 +9377,7 @@
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R98" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.03</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.11</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.51</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.35</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -11126,6 +11126,98 @@
       <c r="V116" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45241.70833333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>6.26</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>5.09</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>04/11/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>11/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-galatasaray/8AaXwqs6/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V117"/>
+  <dimension ref="A1:V120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3241,46 +3241,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,24 +3288,24 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R32" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>6.25</v>
+        <v>1.83</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.4</v>
+        <v>4.03</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>4.83</v>
+        <v>3.85</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>1.51</v>
+        <v>4.47</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-galatasaray/GGft6n88/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kayserispor/Otbl4QxL/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J34" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.83</v>
+        <v>6.25</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.03</v>
+        <v>4.4</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.85</v>
+        <v>4.83</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>4.47</v>
+        <v>1.51</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kayserispor/Otbl4QxL/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-galatasaray/GGft6n88/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4621,71 +4621,71 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>2.21</v>
+        <v>2.01</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:51</t>
+          <t>18/09/2023 18:56</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>3.51</v>
+        <v>3.66</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="P46" t="n">
-        <v>3.34</v>
+        <v>3.56</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="R46" t="n">
-        <v>3.39</v>
+        <v>3.72</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>04/09/2023 18:13</t>
+          <t>12/09/2023 11:42</t>
         </is>
       </c>
       <c r="T46" t="n">
-        <v>3.44</v>
+        <v>4.1</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
-          <t>18/09/2023 18:52</t>
+          <t>18/09/2023 18:59</t>
         </is>
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
         </is>
       </c>
     </row>
@@ -4713,71 +4713,71 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J47" t="n">
-        <v>2.01</v>
+        <v>2.21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:56</t>
+          <t>18/09/2023 18:51</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>3.66</v>
+        <v>3.51</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="P47" t="n">
-        <v>3.56</v>
+        <v>3.34</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="R47" t="n">
-        <v>3.72</v>
+        <v>3.39</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>12/09/2023 11:42</t>
+          <t>04/09/2023 18:13</t>
         </is>
       </c>
       <c r="T47" t="n">
-        <v>4.1</v>
+        <v>3.44</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
-          <t>18/09/2023 18:59</t>
+          <t>18/09/2023 18:52</t>
         </is>
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-hatayspor/2oxRHq7K/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-ankaragucu/fqD1Bspl/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6921,71 +6921,71 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>1.88</v>
+        <v>2.16</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>01/10/2023 17:13</t>
         </is>
       </c>
       <c r="L71" t="n">
-        <v>2.42</v>
+        <v>2.02</v>
       </c>
       <c r="M71" t="inlineStr">
         <is>
-          <t>06/10/2023 18:52</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="N71" t="n">
-        <v>3.86</v>
+        <v>3.88</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>01/10/2023 17:13</t>
         </is>
       </c>
       <c r="P71" t="n">
-        <v>3.39</v>
+        <v>3.91</v>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>06/10/2023 18:52</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="R71" t="n">
-        <v>4.1</v>
+        <v>3.13</v>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>01/10/2023 17:13</t>
         </is>
       </c>
       <c r="T71" t="n">
-        <v>3.13</v>
+        <v>3.6</v>
       </c>
       <c r="U71" t="inlineStr">
         <is>
-          <t>06/10/2023 18:52</t>
+          <t>06/10/2023 18:59</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-f-karagumruk/AHY0ad8j/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-trabzonspor/CMCqOuoi/</t>
         </is>
       </c>
     </row>
@@ -7013,71 +7013,71 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G72" t="n">
+        <v>2</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
         <v>1</v>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Trabzonspor</t>
-        </is>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
       <c r="J72" t="n">
-        <v>2.16</v>
+        <v>1.88</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>01/10/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L72" t="n">
-        <v>2.02</v>
+        <v>2.42</v>
       </c>
       <c r="M72" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:52</t>
         </is>
       </c>
       <c r="N72" t="n">
-        <v>3.88</v>
+        <v>3.86</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>01/10/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P72" t="n">
-        <v>3.91</v>
+        <v>3.39</v>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:52</t>
         </is>
       </c>
       <c r="R72" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="S72" t="inlineStr">
+        <is>
+          <t>04/10/2023 04:43</t>
+        </is>
+      </c>
+      <c r="T72" t="n">
         <v>3.13</v>
       </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>01/10/2023 17:13</t>
-        </is>
-      </c>
-      <c r="T72" t="n">
-        <v>3.6</v>
-      </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>06/10/2023 18:59</t>
+          <t>06/10/2023 18:52</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-trabzonspor/CMCqOuoi/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-f-karagumruk/AHY0ad8j/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.56</v>
+        <v>4.99</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.99</v>
+        <v>2.56</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.19</v>
+        <v>2.91</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
       <c r="J97" t="n">
-        <v>7.87</v>
+        <v>2.03</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>10.56</v>
+        <v>2.11</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>5.68</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>6.22</v>
+        <v>3.35</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.03</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.11</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.8</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.07</v>
+        <v>2.41</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.62</v>
+        <v>3.41</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:55</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.67</v>
+        <v>3.1</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Sivasspor</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.41</v>
+        <v>2.07</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:55</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.1</v>
+        <v>3.67</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
         </is>
       </c>
     </row>
@@ -11218,6 +11218,282 @@
       <c r="V117" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-galatasaray/8AaXwqs6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45242.47916666666</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:26</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>05/11/2023 15:44</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>12/11/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-samsunspor/Kp3yw3dC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>5.79</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45242.58333333334</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>1</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:53</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>06/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>12/11/2023 13:52</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V120"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J97" t="n">
-        <v>2.03</v>
+        <v>7.87</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.11</v>
+        <v>10.56</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.8</v>
+        <v>1.35</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9405,46 +9405,46 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
@@ -9452,24 +9452,24 @@
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,32 +9536,32 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>3</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Sivasspor</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.41</v>
+        <v>2.07</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:55</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.1</v>
+        <v>3.67</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>3</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.07</v>
+        <v>2.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.62</v>
+        <v>3.41</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:55</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.67</v>
+        <v>3.1</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:56</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.44</v>
+        <v>3.94</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>5.79</v>
+        <v>4.32</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:52</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,155 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:56</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.94</v>
+        <v>4.44</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.32</v>
+        <v>5.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:52</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45242.70833333334</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>05/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>12/11/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-fenerbahce/UFpSaQ3P/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J3" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>1.83</v>
+        <v>2.73</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.83</v>
+        <v>3.67</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:11</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>4.41</v>
+        <v>2.67</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:13</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>2.73</v>
+        <v>1.83</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:11</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.03</v>
+        <v>3.87</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>2.67</v>
+        <v>4.41</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:13</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R31" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -3333,46 +3333,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J33" t="n">
-        <v>1.7</v>
+        <v>5.1</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.83</v>
+        <v>6.25</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>4.03</v>
+        <v>4.4</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.85</v>
+        <v>4.83</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>5.05</v>
+        <v>1.61</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>27/08/2023 21:12</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>4.47</v>
+        <v>1.51</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>02/09/2023 20:44</t>
+          <t>02/09/2023 20:43</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kayserispor/Otbl4QxL/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-galatasaray/GGft6n88/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>5.1</v>
+        <v>1.7</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>6.25</v>
+        <v>1.83</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>4.4</v>
+        <v>4.03</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>4.83</v>
+        <v>3.85</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>1.61</v>
+        <v>5.05</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>27/08/2023 21:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>1.51</v>
+        <v>4.47</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>02/09/2023 20:43</t>
+          <t>02/09/2023 20:44</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-galatasaray/GGft6n88/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kayserispor/Otbl4QxL/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.99</v>
+        <v>2.56</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.19</v>
+        <v>2.91</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.56</v>
+        <v>4.99</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,742 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-fenerbahce/UFpSaQ3P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45255.47916666666</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:29</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-hatayspor/YVyIkttI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-ankaragucu/6J6W83tt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45255.58333333334</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>25/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-kasimpasa/nZ1i4ueB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45255.70833333334</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>4</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>8.109999999999999</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>7.57</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>14.43</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>25/11/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-alanyaspor/GfRMl0eO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45256.47916666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:20</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>12/11/2023 17:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>3</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-adanademirspor/fuwEjMQB/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45256.58333333334</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>1</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>2</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>26/11/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45256.70833333334</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>2</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>13/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>6.63</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>13/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>10.71</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>13/11/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>11.72</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>26/11/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-f-karagumruk/txaq61Qb/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V129"/>
+  <dimension ref="A1:V131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -665,71 +665,71 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.33</v>
+        <v>1.94</v>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="L3" t="n">
-        <v>2.73</v>
+        <v>1.83</v>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:14</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>3.67</v>
+        <v>3.83</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="P3" t="n">
-        <v>3.5</v>
+        <v>3.9</v>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:11</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="R3" t="n">
-        <v>3.03</v>
+        <v>3.87</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>07/08/2023 01:12</t>
+          <t>06/08/2023 21:12</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>2.67</v>
+        <v>4.41</v>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>12/08/2023 18:13</t>
+          <t>12/08/2023 18:06</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
         </is>
       </c>
     </row>
@@ -757,71 +757,71 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>1.94</v>
+        <v>2.33</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="L4" t="n">
-        <v>1.83</v>
+        <v>2.73</v>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:14</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>3.83</v>
+        <v>3.67</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="P4" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:11</t>
         </is>
       </c>
       <c r="R4" t="n">
-        <v>3.87</v>
+        <v>3.03</v>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>06/08/2023 21:12</t>
+          <t>07/08/2023 01:12</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>4.41</v>
+        <v>2.67</v>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>12/08/2023 18:06</t>
+          <t>12/08/2023 18:13</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-istanbulspor-as/06o0xHmB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-ankaragucu/URAVMylO/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -3241,46 +3241,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,24 +3288,24 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R32" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
+        <v>1</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
       <c r="J97" t="n">
-        <v>7.87</v>
+        <v>2.03</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>10.56</v>
+        <v>2.11</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>5.68</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>6.22</v>
+        <v>3.35</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="R97" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N98" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O98" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P98" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q98" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R98" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:53</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.33</v>
+        <v>4.04</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.07</v>
+        <v>4.66</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.1</v>
+        <v>6.11</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:53</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.66</v>
+        <v>3.07</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.11</v>
+        <v>3.1</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:56</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.94</v>
+        <v>4.44</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.32</v>
+        <v>5.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:52</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:56</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.44</v>
+        <v>3.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.79</v>
+        <v>4.32</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12322,6 +12322,190 @@
       <c r="V129" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-f-karagumruk/txaq61Qb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45257.75</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>4</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-pendikspor/pA5z8Nen/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45257.75</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>3</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>12/11/2023 15:42</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>27/11/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-trabzonspor/zabm5Lu5/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V131"/>
+  <dimension ref="A1:V133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R31" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -3333,46 +3333,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R97" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J98" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>1</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.03</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.11</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.51</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.35</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.59</v>
+        <v>3.71</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.91</v>
+        <v>3.66</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:56</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.66</v>
+        <v>3.91</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.98</v>
+        <v>3.59</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -12506,6 +12506,190 @@
       <c r="V131" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-trabzonspor/zabm5Lu5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45261.75</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>3</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>28/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>28/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>4.59</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>28/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-istanbulspor-as/fuPIK0uh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45261.75</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>3</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>3</v>
+      </c>
+      <c r="J133" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:40</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>01/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-antalyaspor/Ucid3aAH/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V133"/>
+  <dimension ref="A1:V135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3241,46 +3241,46 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
@@ -3288,24 +3288,24 @@
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N32" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P32" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N32" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P32" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R32" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G51" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
         <v>2</v>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
       <c r="J51" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9313,46 +9313,46 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.19</v>
+        <v>2.03</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N97" t="n">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P97" t="n">
-        <v>3.32</v>
+        <v>3.35</v>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
@@ -9360,24 +9360,24 @@
         </is>
       </c>
       <c r="R97" t="n">
-        <v>3.29</v>
+        <v>3.8</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>2.82</v>
+        <v>3.89</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
       <c r="J98" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,32 +9444,32 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R98" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T98" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9497,71 +9497,71 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.03</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.11</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.51</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.35</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.8</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T99" t="n">
-        <v>3.89</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.66</v>
+        <v>3.91</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.98</v>
+        <v>3.59</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:56</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.59</v>
+        <v>3.71</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.91</v>
+        <v>3.66</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:56</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G123" t="n">
+        <v>2</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="I123" t="n">
-        <v>1</v>
-      </c>
       <c r="J123" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.51</v>
+        <v>3.78</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.89</v>
+        <v>3.62</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>25/11/2023 13:59</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-ankaragucu/6J6W83tt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-kasimpasa/nZ1i4ueB/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.78</v>
+        <v>3.51</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.62</v>
+        <v>3.89</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:59</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-kasimpasa/nZ1i4ueB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-ankaragucu/6J6W83tt/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12690,6 +12690,190 @@
       <c r="V133" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-antalyaspor/Ucid3aAH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45262.47916666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>2</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>2</v>
+      </c>
+      <c r="J134" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>25/11/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>02/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-konyaspor/vXtWdcmo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45262.58333333334</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>3</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>2</v>
+      </c>
+      <c r="J135" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:17</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>02/12/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-basaksehir/newSGIvH/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V135"/>
+  <dimension ref="A1:V137"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J29" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2.06</v>
+        <v>2.47</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.27</v>
+        <v>2.78</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
+          <t>02/09/2023 18:13</t>
+        </is>
+      </c>
+      <c r="N31" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>28/08/2023 04:12</t>
+        </is>
+      </c>
+      <c r="P31" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
           <t>02/09/2023 18:14</t>
         </is>
       </c>
-      <c r="N31" t="n">
-        <v>3.66</v>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:43</t>
-        </is>
-      </c>
-      <c r="P31" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>02/09/2023 18:14</t>
-        </is>
-      </c>
       <c r="R31" t="n">
-        <v>3.65</v>
+        <v>2.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.34</v>
+        <v>2.6</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>02/09/2023 18:14</t>
+          <t>02/09/2023 18:13</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
         </is>
       </c>
     </row>
@@ -3333,46 +3333,46 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.47</v>
+        <v>2.06</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.78</v>
+        <v>2.27</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.74</v>
+        <v>3.66</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.53</v>
+        <v>3.48</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
@@ -3380,24 +3380,24 @@
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.73</v>
+        <v>3.65</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.6</v>
+        <v>3.34</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>02/09/2023 18:13</t>
+          <t>02/09/2023 18:14</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-alanyaspor/6oDkqP0e/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-konyaspor/f7gp56NE/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -5081,71 +5081,71 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>5.38</v>
+        <v>1.97</v>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L51" t="n">
-        <v>4.24</v>
+        <v>2.18</v>
       </c>
       <c r="M51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="N51" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P51" t="n">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:53</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="R51" t="n">
-        <v>1.6</v>
+        <v>3.82</v>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>17/09/2023 15:12</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="T51" t="n">
-        <v>1.9</v>
+        <v>3.47</v>
       </c>
       <c r="U51" t="inlineStr">
         <is>
-          <t>23/09/2023 18:57</t>
+          <t>23/09/2023 18:52</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G52" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
         <v>2</v>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Samsunspor</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
       <c r="J52" t="n">
-        <v>1.97</v>
+        <v>5.38</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>2.18</v>
+        <v>4.24</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.8</v>
+        <v>4.5</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:53</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>3.82</v>
+        <v>1.6</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>17/09/2023 15:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.47</v>
+        <v>1.9</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>23/09/2023 18:52</t>
+          <t>23/09/2023 18:57</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-samsunspor/xWKY9kQt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-galatasaray/KjY6EVHP/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.71</v>
+        <v>2.13</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:57</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:55</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.79</v>
+        <v>4.57</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.13</v>
+        <v>4.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:57</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:55</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.57</v>
+        <v>1.79</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>3</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>3</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.07</v>
+        <v>2.41</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.62</v>
+        <v>3.41</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:55</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.67</v>
+        <v>3.1</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>3</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Sivasspor</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.41</v>
+        <v>2.07</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:55</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.1</v>
+        <v>3.67</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
         </is>
       </c>
     </row>
@@ -12874,6 +12874,190 @@
       <c r="V135" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-basaksehir/newSGIvH/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45262.70833333334</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>2</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>3</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>4.49</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-samsunspor/txLELtQo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45262.70833333334</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>2</v>
+      </c>
+      <c r="J137" t="n">
+        <v>6.33</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>5.29</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>6.31</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>02/12/2023 16:54</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-galatasaray/8lj02JPN/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V137"/>
+  <dimension ref="A1:V152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3057,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G29" t="n">
@@ -3065,63 +3065,63 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>2.82</v>
+        <v>2.37</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>2.96</v>
+        <v>1.76</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 12:29</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.68</v>
+        <v>3.65</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.55</v>
+        <v>4.13</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:53</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.47</v>
+        <v>2.91</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>26/08/2023 18:43</t>
+          <t>28/08/2023 04:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.45</v>
+        <v>3.31</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>01/09/2023 19:54</t>
+          <t>01/09/2023 17:09</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,63 +3157,63 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J30" t="n">
-        <v>2.37</v>
+        <v>2.82</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.76</v>
+        <v>2.96</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>01/09/2023 12:29</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.65</v>
+        <v>3.68</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4.13</v>
+        <v>3.55</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:53</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.91</v>
+        <v>2.47</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>28/08/2023 04:12</t>
+          <t>26/08/2023 18:43</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.31</v>
+        <v>2.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>01/09/2023 17:09</t>
+          <t>01/09/2023 19:54</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-f-karagumruk/6ahOcOFl/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-trabzonspor/08CgrqG1/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
         <v>2</v>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
       <c r="J38" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>4.21</v>
+        <v>3.89</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>3.27</v>
+        <v>4.11</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>3.89</v>
+        <v>4.21</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>4.11</v>
+        <v>3.27</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J40" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>4.8</v>
+        <v>5.55</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>4.6</v>
+        <v>5.38</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>5.72</v>
+        <v>7.3</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>5.12</v>
+        <v>8.02</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>5.55</v>
+        <v>4.8</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>5.38</v>
+        <v>4.6</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>7.3</v>
+        <v>5.72</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>8.02</v>
+        <v>5.12</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.13</v>
+        <v>4.71</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:55</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.57</v>
+        <v>1.79</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.71</v>
+        <v>2.13</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:57</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.79</v>
+        <v>4.57</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -13058,6 +13058,1386 @@
       <c r="V137" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-galatasaray/8lj02JPN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45263.47916666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>4</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>2</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:21</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>25/11/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-gaziantep/xOf41wuU/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45263.58333333334</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>1</v>
+      </c>
+      <c r="J139" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>03/12/2023 13:54</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-kayserispor/l2OMJKfb/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45263.70833333334</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>1</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>03/12/2023 16:53</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-besiktas/84vOHbPA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45264.75</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>4</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>1</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>04/12/2023 17:53</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>6.96</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>04/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>27/11/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>04/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-sivasspor/ShNQIvA4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45268.75</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>3</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:54</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>5.71</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>6.71</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:34</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>6.84</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>08/12/2023 17:34</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-adanademirspor/02J2AGHp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45269.47916666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>2</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>02/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>09/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-f-karagumruk/lOacWcv4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45269.58333333334</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>4</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>2</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>09/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-kasimpasa/vgI69zXj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45269.70833333334</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>1</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>3</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:12</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:12</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>03/12/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>09/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-fenerbahce/n9I0VHgA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45270.47916666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:26</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>03/12/2023 11:42</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>10/12/2023 11:29</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-alanyaspor/fLtzFd9T/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-hatayspor/6aAhXwPc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45270.58333333334</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>10/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-pendikspor/tIxWFxfN/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45270.70833333334</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>1</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>3</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>03/12/2023 17:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>10/12/2023 16:55</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-trabzonspor/S8BlYJ9i/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45271.75</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>1</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-rizespor/tWH4Uy9G/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45271.75</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>0</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-sivasspor/IeuYC9wq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45279.625</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>3</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:32</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:29</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>19/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-sivasspor/4WPGTGuK/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V152"/>
+  <dimension ref="A1:V153"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J112" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:53</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.66</v>
+        <v>3.07</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.11</v>
+        <v>3.1</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:53</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.33</v>
+        <v>4.04</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.07</v>
+        <v>4.66</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.1</v>
+        <v>6.11</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
         </is>
       </c>
     </row>
@@ -14438,6 +14438,98 @@
       <c r="V152" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-sivasspor/4WPGTGuK/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45279.75</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>2</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>3</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>19/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-adanademirspor/hdMCUdQD/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V153"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>1</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>2</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>1</v>
-      </c>
       <c r="J63" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>2</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>1</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>2</v>
-      </c>
       <c r="J64" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:53</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.33</v>
+        <v>4.04</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>3.07</v>
+        <v>4.66</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.1</v>
+        <v>6.11</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J113" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:53</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.66</v>
+        <v>3.07</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>6.11</v>
+        <v>3.1</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
         </is>
       </c>
     </row>
@@ -14530,6 +14530,98 @@
       <c r="V153" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-adanademirspor/hdMCUdQD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45280.625</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>3</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>7.02</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:48</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>5.17</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:48</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:48</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>20/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-fenerbahce/4ztI8F3f/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V154"/>
+  <dimension ref="A1:V156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G63" t="n">
+        <v>2</v>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
         <v>1</v>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Antalyaspor</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
-        <v>2</v>
-      </c>
       <c r="J63" t="n">
-        <v>2.62</v>
+        <v>1.48</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.09</v>
+        <v>1.6</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.49</v>
+        <v>4.88</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.92</v>
+        <v>4.29</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:48</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>2.75</v>
+        <v>6.18</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>26/09/2023 18:12</t>
+          <t>26/09/2023 17:12</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.88</v>
+        <v>5.8</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>30/09/2023 14:44</t>
+          <t>30/09/2023 14:58</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G64" t="n">
+        <v>1</v>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
         <v>2</v>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Pendikspor</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
-        <v>1</v>
-      </c>
       <c r="J64" t="n">
-        <v>1.48</v>
+        <v>2.62</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.6</v>
+        <v>4.09</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.88</v>
+        <v>3.49</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.29</v>
+        <v>3.92</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>6.18</v>
+        <v>2.75</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>26/09/2023 17:12</t>
+          <t>26/09/2023 18:12</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>5.8</v>
+        <v>1.88</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>30/09/2023 14:58</t>
+          <t>30/09/2023 14:44</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-pendikspor/W2iA9tWc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-antalyaspor/IoGg5RvC/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G68" t="n">
+        <v>4</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I68" t="n">
-        <v>2</v>
-      </c>
       <c r="J68" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G69" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J69" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J79" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J80" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J98" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,32 +9536,32 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J106" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.59</v>
+        <v>3.71</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.91</v>
+        <v>3.66</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:56</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J107" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.66</v>
+        <v>3.91</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.98</v>
+        <v>3.59</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:56</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
         </is>
       </c>
     </row>
@@ -10693,71 +10693,71 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J112" t="n">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.62</v>
+        <v>2.47</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:53</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>3.95</v>
+        <v>3.45</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.04</v>
+        <v>3.33</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.66</v>
+        <v>3.07</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
-          <t>05/11/2023 14:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T112" t="n">
-        <v>6.11</v>
+        <v>3.1</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>10/11/2023 17:46</t>
+          <t>10/11/2023 17:55</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
         </is>
       </c>
     </row>
@@ -10785,71 +10785,71 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="L113" t="n">
-        <v>2.47</v>
+        <v>1.62</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:53</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>3.45</v>
+        <v>3.95</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.33</v>
+        <v>4.04</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>3.07</v>
+        <v>4.66</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>05/11/2023 14:12</t>
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.1</v>
+        <v>6.11</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>10/11/2023 17:55</t>
+          <t>10/11/2023 17:46</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-antalyaspor/MDP6hrda/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-konyaspor/QoWcf4Rn/</t>
         </is>
       </c>
     </row>
@@ -10969,71 +10969,71 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G115" t="n">
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
         <v>3</v>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>Sivasspor</t>
-        </is>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
       <c r="J115" t="n">
-        <v>2.41</v>
+        <v>2.07</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L115" t="n">
-        <v>2.22</v>
+        <v>2.34</v>
       </c>
       <c r="M115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="N115" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="O115" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P115" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="Q115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:55</t>
         </is>
       </c>
       <c r="R115" t="n">
-        <v>3.1</v>
+        <v>3.67</v>
       </c>
       <c r="S115" t="inlineStr">
         <is>
-          <t>06/11/2023 04:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T115" t="n">
-        <v>3.51</v>
+        <v>3.37</v>
       </c>
       <c r="U115" t="inlineStr">
         <is>
-          <t>11/11/2023 13:53</t>
+          <t>11/11/2023 13:59</t>
         </is>
       </c>
       <c r="V115" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
         </is>
       </c>
     </row>
@@ -11061,71 +11061,71 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>3</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>3</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.07</v>
+        <v>2.41</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.34</v>
+        <v>2.22</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.62</v>
+        <v>3.41</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:55</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>3.67</v>
+        <v>3.1</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>06/11/2023 04:12</t>
         </is>
       </c>
       <c r="T116" t="n">
-        <v>3.37</v>
+        <v>3.51</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>11/11/2023 13:59</t>
+          <t>11/11/2023 13:53</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-gaziantep/hb1qysRO/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-sivasspor/WOWgepCt/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:56</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.44</v>
+        <v>3.94</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>5.79</v>
+        <v>4.32</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:52</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:56</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.94</v>
+        <v>4.44</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.32</v>
+        <v>5.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:52</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
         </is>
       </c>
     </row>
@@ -11705,22 +11705,22 @@
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I123" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J123" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -11728,7 +11728,7 @@
         </is>
       </c>
       <c r="L123" t="n">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="M123" t="inlineStr">
         <is>
@@ -11736,7 +11736,7 @@
         </is>
       </c>
       <c r="N123" t="n">
-        <v>3.77</v>
+        <v>3.57</v>
       </c>
       <c r="O123" t="inlineStr">
         <is>
@@ -11744,7 +11744,7 @@
         </is>
       </c>
       <c r="P123" t="n">
-        <v>3.68</v>
+        <v>3.4</v>
       </c>
       <c r="Q123" t="inlineStr">
         <is>
@@ -11752,7 +11752,7 @@
         </is>
       </c>
       <c r="R123" t="n">
-        <v>3.78</v>
+        <v>3.51</v>
       </c>
       <c r="S123" t="inlineStr">
         <is>
@@ -11760,16 +11760,16 @@
         </is>
       </c>
       <c r="T123" t="n">
-        <v>3.62</v>
+        <v>3.89</v>
       </c>
       <c r="U123" t="inlineStr">
         <is>
-          <t>25/11/2023 13:56</t>
+          <t>25/11/2023 13:59</t>
         </is>
       </c>
       <c r="V123" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-kasimpasa/nZ1i4ueB/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-ankaragucu/6J6W83tt/</t>
         </is>
       </c>
     </row>
@@ -11797,22 +11797,22 @@
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Ankaragucu</t>
-        </is>
-      </c>
-      <c r="I124" t="n">
-        <v>1</v>
-      </c>
       <c r="J124" t="n">
-        <v>2.14</v>
+        <v>1.99</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -11820,7 +11820,7 @@
         </is>
       </c>
       <c r="L124" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="M124" t="inlineStr">
         <is>
@@ -11828,7 +11828,7 @@
         </is>
       </c>
       <c r="N124" t="n">
-        <v>3.57</v>
+        <v>3.77</v>
       </c>
       <c r="O124" t="inlineStr">
         <is>
@@ -11836,7 +11836,7 @@
         </is>
       </c>
       <c r="P124" t="n">
-        <v>3.4</v>
+        <v>3.68</v>
       </c>
       <c r="Q124" t="inlineStr">
         <is>
@@ -11844,7 +11844,7 @@
         </is>
       </c>
       <c r="R124" t="n">
-        <v>3.51</v>
+        <v>3.78</v>
       </c>
       <c r="S124" t="inlineStr">
         <is>
@@ -11852,16 +11852,16 @@
         </is>
       </c>
       <c r="T124" t="n">
-        <v>3.89</v>
+        <v>3.62</v>
       </c>
       <c r="U124" t="inlineStr">
         <is>
-          <t>25/11/2023 13:59</t>
+          <t>25/11/2023 13:56</t>
         </is>
       </c>
       <c r="V124" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-ankaragucu/6J6W83tt/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-kasimpasa/nZ1i4ueB/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,48 +13936,48 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
+          <t>10/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
           <t>10/12/2023 13:58</t>
         </is>
       </c>
-      <c r="N147" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O147" t="inlineStr">
+      <c r="R147" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S147" t="inlineStr">
         <is>
           <t>03/12/2023 14:12</t>
         </is>
       </c>
-      <c r="P147" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q147" t="inlineStr">
+      <c r="T147" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U147" t="inlineStr">
         <is>
           <t>10/12/2023 13:58</t>
         </is>
       </c>
-      <c r="R147" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="S147" t="inlineStr">
-        <is>
-          <t>03/12/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T147" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="U147" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:58</t>
-        </is>
-      </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-hatayspor/6aAhXwPc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-pendikspor/tIxWFxfN/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,15 +14028,15 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="N148" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O148" t="inlineStr">
         <is>
@@ -14044,7 +14044,7 @@
         </is>
       </c>
       <c r="P148" t="n">
-        <v>4.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q148" t="inlineStr">
         <is>
@@ -14052,7 +14052,7 @@
         </is>
       </c>
       <c r="R148" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="S148" t="inlineStr">
         <is>
@@ -14060,7 +14060,7 @@
         </is>
       </c>
       <c r="T148" t="n">
-        <v>4.9</v>
+        <v>4.31</v>
       </c>
       <c r="U148" t="inlineStr">
         <is>
@@ -14069,7 +14069,7 @@
       </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-pendikspor/tIxWFxfN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-hatayspor/6aAhXwPc/</t>
         </is>
       </c>
     </row>
@@ -14622,6 +14622,190 @@
       <c r="V154" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-fenerbahce/4ztI8F3f/</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45280.75</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G155" t="n">
+        <v>0</v>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>0</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L155" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="N155" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P155" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="R155" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="S155" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T155" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="U155" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V155" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kasimpasa/neFLSzeQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45280.75</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>1</v>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="L156" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:53</t>
+        </is>
+      </c>
+      <c r="N156" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="P156" t="n">
+        <v>6.61</v>
+      </c>
+      <c r="Q156" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R156" t="n">
+        <v>10.54</v>
+      </c>
+      <c r="S156" t="inlineStr">
+        <is>
+          <t>14/12/2023 09:42</t>
+        </is>
+      </c>
+      <c r="T156" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="U156" t="inlineStr">
+        <is>
+          <t>20/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V156" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-f-karagumruk/02ZQ6gY6/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V156"/>
+  <dimension ref="A1:V158"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -14806,6 +14806,190 @@
       <c r="V156" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-f-karagumruk/02ZQ6gY6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45281.625</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G157" t="n">
+        <v>5</v>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L157" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N157" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P157" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q157" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="R157" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="S157" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T157" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U157" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V157" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-pendikspor/dU4eMYXg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45281.625</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G158" t="n">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L158" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="N158" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P158" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="Q158" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:57</t>
+        </is>
+      </c>
+      <c r="R158" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="S158" t="inlineStr">
+        <is>
+          <t>14/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T158" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U158" t="inlineStr">
+        <is>
+          <t>21/12/2023 14:59</t>
+        </is>
+      </c>
+      <c r="V158" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-konyaspor/vgYU5DmD/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V158"/>
+  <dimension ref="A1:V160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J23" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,32 +2544,32 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R23" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,15 +2636,15 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
@@ -2652,16 +2652,16 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -3885,22 +3885,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.92</v>
+        <v>1.81</v>
       </c>
       <c r="K38" t="inlineStr">
         <is>
@@ -3908,15 +3908,15 @@
         </is>
       </c>
       <c r="L38" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3924,15 +3924,15 @@
         </is>
       </c>
       <c r="P38" t="n">
-        <v>3.51</v>
+        <v>3.49</v>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:25</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="R38" t="n">
-        <v>3.89</v>
+        <v>4.21</v>
       </c>
       <c r="S38" t="inlineStr">
         <is>
@@ -3940,16 +3940,16 @@
         </is>
       </c>
       <c r="T38" t="n">
-        <v>4.11</v>
+        <v>3.27</v>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>16/09/2023 15:38</t>
+          <t>16/09/2023 15:54</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G39" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
         <v>2</v>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
       <c r="J39" t="n">
-        <v>1.81</v>
+        <v>1.92</v>
       </c>
       <c r="K39" t="inlineStr">
         <is>
@@ -4000,15 +4000,15 @@
         </is>
       </c>
       <c r="L39" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>3.95</v>
+        <v>3.8</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -4016,15 +4016,15 @@
         </is>
       </c>
       <c r="P39" t="n">
-        <v>3.49</v>
+        <v>3.51</v>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:25</t>
         </is>
       </c>
       <c r="R39" t="n">
-        <v>4.21</v>
+        <v>3.89</v>
       </c>
       <c r="S39" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="T39" t="n">
-        <v>3.27</v>
+        <v>4.11</v>
       </c>
       <c r="U39" t="inlineStr">
         <is>
-          <t>16/09/2023 15:54</t>
+          <t>16/09/2023 15:38</t>
         </is>
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-gaziantep/0MiSdrVf/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-rizespor/YZB5A1af/</t>
         </is>
       </c>
     </row>
@@ -4069,22 +4069,22 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>1.37</v>
+        <v>1.51</v>
       </c>
       <c r="K40" t="inlineStr">
         <is>
@@ -4092,15 +4092,15 @@
         </is>
       </c>
       <c r="L40" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:24</t>
+          <t>16/09/2023 18:52</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>5.55</v>
+        <v>4.8</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4108,15 +4108,15 @@
         </is>
       </c>
       <c r="P40" t="n">
-        <v>5.38</v>
+        <v>4.6</v>
       </c>
       <c r="Q40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="R40" t="n">
-        <v>7.3</v>
+        <v>5.72</v>
       </c>
       <c r="S40" t="inlineStr">
         <is>
@@ -4124,16 +4124,16 @@
         </is>
       </c>
       <c r="T40" t="n">
-        <v>8.02</v>
+        <v>5.12</v>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>16/09/2023 18:59</t>
+          <t>16/09/2023 18:57</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
         </is>
       </c>
     </row>
@@ -4161,22 +4161,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J41" t="n">
-        <v>1.51</v>
+        <v>1.37</v>
       </c>
       <c r="K41" t="inlineStr">
         <is>
@@ -4184,15 +4184,15 @@
         </is>
       </c>
       <c r="L41" t="n">
-        <v>1.62</v>
+        <v>1.4</v>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:52</t>
+          <t>16/09/2023 18:24</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>4.8</v>
+        <v>5.55</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4200,15 +4200,15 @@
         </is>
       </c>
       <c r="P41" t="n">
-        <v>4.6</v>
+        <v>5.38</v>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="R41" t="n">
-        <v>5.72</v>
+        <v>7.3</v>
       </c>
       <c r="S41" t="inlineStr">
         <is>
@@ -4216,16 +4216,16 @@
         </is>
       </c>
       <c r="T41" t="n">
-        <v>5.12</v>
+        <v>8.02</v>
       </c>
       <c r="U41" t="inlineStr">
         <is>
-          <t>16/09/2023 18:57</t>
+          <t>16/09/2023 18:59</t>
         </is>
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-pendikspor/lrYMIPiE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-samsunspor/dloyeMa7/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J45" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -6645,22 +6645,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J68" t="n">
-        <v>1.7</v>
+        <v>3.4</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -6668,15 +6668,15 @@
         </is>
       </c>
       <c r="L68" t="n">
-        <v>1.72</v>
+        <v>3.08</v>
       </c>
       <c r="M68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="N68" t="n">
-        <v>4.29</v>
+        <v>3.74</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
@@ -6684,15 +6684,15 @@
         </is>
       </c>
       <c r="P68" t="n">
-        <v>4.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="R68" t="n">
-        <v>4.5</v>
+        <v>2.09</v>
       </c>
       <c r="S68" t="inlineStr">
         <is>
@@ -6700,16 +6700,16 @@
         </is>
       </c>
       <c r="T68" t="n">
-        <v>4.55</v>
+        <v>2.44</v>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>01/10/2023 17:56</t>
+          <t>01/10/2023 17:57</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
         </is>
       </c>
     </row>
@@ -6737,22 +6737,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G69" t="n">
+        <v>4</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Besiktas</t>
-        </is>
-      </c>
-      <c r="I69" t="n">
-        <v>2</v>
-      </c>
       <c r="J69" t="n">
-        <v>3.4</v>
+        <v>1.7</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -6760,15 +6760,15 @@
         </is>
       </c>
       <c r="L69" t="n">
-        <v>3.08</v>
+        <v>1.72</v>
       </c>
       <c r="M69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="N69" t="n">
-        <v>3.74</v>
+        <v>4.29</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -6776,15 +6776,15 @@
         </is>
       </c>
       <c r="P69" t="n">
-        <v>3.42</v>
+        <v>4.36</v>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="R69" t="n">
-        <v>2.09</v>
+        <v>4.5</v>
       </c>
       <c r="S69" t="inlineStr">
         <is>
@@ -6792,16 +6792,16 @@
         </is>
       </c>
       <c r="T69" t="n">
-        <v>2.44</v>
+        <v>4.55</v>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>01/10/2023 17:57</t>
+          <t>01/10/2023 17:56</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-besiktas/IJgM6vGG/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-alanyaspor/QkM9B21o/</t>
         </is>
       </c>
     </row>
@@ -7657,22 +7657,22 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>4.89</v>
+        <v>2.54</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>6.87</v>
+        <v>2.54</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>4.43</v>
+        <v>3.46</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>4.9</v>
+        <v>3.16</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>1.63</v>
+        <v>2.86</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>1.47</v>
+        <v>3.15</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>08/10/2023 17:59</t>
+          <t>08/10/2023 17:56</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
         </is>
       </c>
     </row>
@@ -7749,22 +7749,22 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I80" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J80" t="n">
-        <v>2.54</v>
+        <v>4.89</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -7772,15 +7772,15 @@
         </is>
       </c>
       <c r="L80" t="n">
-        <v>2.54</v>
+        <v>6.87</v>
       </c>
       <c r="M80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="N80" t="n">
-        <v>3.46</v>
+        <v>4.43</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -7788,15 +7788,15 @@
         </is>
       </c>
       <c r="P80" t="n">
-        <v>3.16</v>
+        <v>4.9</v>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:57</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="R80" t="n">
-        <v>2.86</v>
+        <v>1.63</v>
       </c>
       <c r="S80" t="inlineStr">
         <is>
@@ -7804,16 +7804,16 @@
         </is>
       </c>
       <c r="T80" t="n">
-        <v>3.15</v>
+        <v>1.47</v>
       </c>
       <c r="U80" t="inlineStr">
         <is>
-          <t>08/10/2023 17:56</t>
+          <t>08/10/2023 17:59</t>
         </is>
       </c>
       <c r="V80" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-konyaspor/0rqR5bVM/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-fenerbahce/WQZd0xgp/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>2.56</v>
+        <v>4.99</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J83" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>4.99</v>
+        <v>2.56</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>4.19</v>
+        <v>2.91</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J94" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>1</v>
-      </c>
       <c r="J95" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>2</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
       <c r="J98" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,32 +9444,32 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R98" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S98" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T98" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U98" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -10141,71 +10141,71 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I106" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J106" t="n">
-        <v>2.01</v>
+        <v>1.99</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="L106" t="n">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="M106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="N106" t="n">
-        <v>3.71</v>
+        <v>3.59</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>3.42</v>
+        <v>3.36</v>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:54</t>
         </is>
       </c>
       <c r="R106" t="n">
-        <v>3.66</v>
+        <v>3.91</v>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>29/10/2023 18:12</t>
         </is>
       </c>
       <c r="T106" t="n">
-        <v>3.98</v>
+        <v>3.59</v>
       </c>
       <c r="U106" t="inlineStr">
         <is>
-          <t>05/11/2023 13:31</t>
+          <t>05/11/2023 13:56</t>
         </is>
       </c>
       <c r="V106" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
         </is>
       </c>
     </row>
@@ -10233,71 +10233,71 @@
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I107" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J107" t="n">
-        <v>1.99</v>
+        <v>2.01</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="L107" t="n">
-        <v>2.21</v>
+        <v>2.06</v>
       </c>
       <c r="M107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="N107" t="n">
-        <v>3.59</v>
+        <v>3.71</v>
       </c>
       <c r="O107" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="P107" t="n">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:54</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="R107" t="n">
-        <v>3.91</v>
+        <v>3.66</v>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>29/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="T107" t="n">
-        <v>3.59</v>
+        <v>3.98</v>
       </c>
       <c r="U107" t="inlineStr">
         <is>
-          <t>05/11/2023 13:56</t>
+          <t>05/11/2023 13:31</t>
         </is>
       </c>
       <c r="V107" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-ankaragucu/bXgnagDE/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-f-karagumruk/QoASvPRa/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:56</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.94</v>
+        <v>4.44</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.32</v>
+        <v>5.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:52</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:56</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.44</v>
+        <v>3.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.79</v>
+        <v>4.32</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>2.07</v>
+        <v>1.87</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>1.69</v>
+        <v>1.91</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>10/12/2023 13:57</t>
+          <t>10/12/2023 13:58</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,7 +13952,7 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>4.23</v>
+        <v>3.65</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
@@ -13960,7 +13960,7 @@
         </is>
       </c>
       <c r="R147" t="n">
-        <v>3.5</v>
+        <v>4.17</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,7 +13968,7 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>4.9</v>
+        <v>4.31</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
@@ -13977,7 +13977,7 @@
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-pendikspor/tIxWFxfN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-hatayspor/6aAhXwPc/</t>
         </is>
       </c>
     </row>
@@ -14005,22 +14005,22 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1.87</v>
+        <v>2.07</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -14028,48 +14028,48 @@
         </is>
       </c>
       <c r="L148" t="n">
-        <v>1.91</v>
+        <v>1.69</v>
       </c>
       <c r="M148" t="inlineStr">
         <is>
+          <t>10/12/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>03/12/2023 14:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
           <t>10/12/2023 13:58</t>
         </is>
       </c>
-      <c r="N148" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="O148" t="inlineStr">
+      <c r="R148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S148" t="inlineStr">
         <is>
           <t>03/12/2023 14:12</t>
         </is>
       </c>
-      <c r="P148" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="Q148" t="inlineStr">
+      <c r="T148" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U148" t="inlineStr">
         <is>
           <t>10/12/2023 13:58</t>
         </is>
       </c>
-      <c r="R148" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="S148" t="inlineStr">
-        <is>
-          <t>03/12/2023 14:12</t>
-        </is>
-      </c>
-      <c r="T148" t="n">
-        <v>4.31</v>
-      </c>
-      <c r="U148" t="inlineStr">
-        <is>
-          <t>10/12/2023 13:58</t>
-        </is>
-      </c>
       <c r="V148" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-hatayspor/6aAhXwPc/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-pendikspor/tIxWFxfN/</t>
         </is>
       </c>
     </row>
@@ -14990,6 +14990,190 @@
       <c r="V158" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-konyaspor/vgYU5DmD/</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45281.75</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G159" t="n">
+        <v>0</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L159" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N159" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P159" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q159" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R159" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S159" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T159" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U159" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V159" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-hatayspor/Iw6iNEIm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45281.75</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>3</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>7</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:57</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-alanyaspor/l41mOf3s/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V160"/>
+  <dimension ref="A1:V170"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G8" t="n">
@@ -1133,14 +1133,14 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I8" t="n">
         <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>1.34</v>
+        <v>1.6</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
@@ -1148,15 +1148,15 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>1.25</v>
+        <v>1.62</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>13/08/2023 19:57</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>5.74</v>
+        <v>4.51</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1164,15 +1164,15 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>6.82</v>
+        <v>4.63</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="R8" t="n">
-        <v>7.98</v>
+        <v>5.26</v>
       </c>
       <c r="S8" t="inlineStr">
         <is>
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>11.09</v>
+        <v>5.09</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>13/08/2023 20:39</t>
+          <t>13/08/2023 20:42</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
         </is>
       </c>
     </row>
@@ -1217,7 +1217,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G9" t="n">
@@ -1225,14 +1225,14 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>1</v>
       </c>
       <c r="J9" t="n">
-        <v>1.6</v>
+        <v>1.34</v>
       </c>
       <c r="K9" t="inlineStr">
         <is>
@@ -1240,15 +1240,15 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>1.62</v>
+        <v>1.25</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 19:57</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>4.51</v>
+        <v>5.74</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1256,15 +1256,15 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>4.63</v>
+        <v>6.82</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="R9" t="n">
-        <v>5.26</v>
+        <v>7.98</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>5.09</v>
+        <v>11.09</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>13/08/2023 20:42</t>
+          <t>13/08/2023 20:39</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-rizespor/INkusuZu/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-gaziantep/htrhvwJb/</t>
         </is>
       </c>
     </row>
@@ -1493,7 +1493,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G12" t="n">
@@ -1501,34 +1501,34 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I12" t="n">
         <v>1</v>
       </c>
       <c r="J12" t="n">
-        <v>1.93</v>
+        <v>2.32</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2.51</v>
+        <v>2.05</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.88</v>
+        <v>3.57</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="P12" t="n">
@@ -1536,28 +1536,28 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.92</v>
+        <v>3.12</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>12/08/2023 21:12</t>
+          <t>14/08/2023 05:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>2.85</v>
+        <v>3.79</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>18/08/2023 19:59</t>
+          <t>18/08/2023 19:55</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,34 +1593,34 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>2.32</v>
+        <v>1.93</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.05</v>
+        <v>2.51</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.57</v>
+        <v>3.88</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="P13" t="n">
@@ -1628,28 +1628,28 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.12</v>
+        <v>3.92</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>14/08/2023 05:12</t>
+          <t>12/08/2023 21:12</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>3.79</v>
+        <v>2.85</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>18/08/2023 19:55</t>
+          <t>18/08/2023 19:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-konyaspor/SzIUidmb/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-kayserispor/MLZ8zeIN/</t>
         </is>
       </c>
     </row>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G18" t="n">
@@ -2053,14 +2053,14 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>2.45</v>
+        <v>1.29</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.84</v>
+        <v>1.28</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.59</v>
+        <v>6.05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.42</v>
+        <v>6.31</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.9</v>
+        <v>8.81</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.61</v>
+        <v>10.07</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>20/08/2023 20:43</t>
+          <t>20/08/2023 20:12</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
         </is>
       </c>
     </row>
@@ -2137,7 +2137,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G19" t="n">
@@ -2145,14 +2145,14 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>1.29</v>
+        <v>2.45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.28</v>
+        <v>2.84</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>6.05</v>
+        <v>3.59</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>6.31</v>
+        <v>3.42</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>8.81</v>
+        <v>2.9</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>10.07</v>
+        <v>2.61</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>20/08/2023 20:12</t>
+          <t>20/08/2023 20:43</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-pendikspor/6RGYjG24/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-sivasspor/KAEMgIIo/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.59</v>
+        <v>4.62</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>14/08/2023 20:12</t>
+          <t>15/08/2023 13:42</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>2.89</v>
+        <v>4.13</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
+          <t>21/08/2023 19:58</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>15/08/2023 13:42</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
           <t>21/08/2023 19:59</t>
         </is>
       </c>
-      <c r="N20" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>14/08/2023 20:12</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>3.55</v>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>21/08/2023 19:53</t>
-        </is>
-      </c>
       <c r="R20" t="n">
-        <v>2.56</v>
+        <v>1.7</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>14/08/2023 20:12</t>
+          <t>15/08/2023 13:42</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.5</v>
+        <v>1.91</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>21/08/2023 19:59</t>
+          <t>21/08/2023 19:58</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-adanademirspor/O2BwjzIA/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-fenerbahce/I5zvVYuo/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>4.62</v>
+        <v>2.59</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>15/08/2023 13:42</t>
+          <t>14/08/2023 20:12</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>4.13</v>
+        <v>2.89</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>21/08/2023 19:58</t>
+          <t>21/08/2023 19:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>4.32</v>
+        <v>3.83</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>15/08/2023 13:42</t>
+          <t>14/08/2023 20:12</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.81</v>
+        <v>3.55</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
+          <t>21/08/2023 19:53</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>14/08/2023 20:12</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
           <t>21/08/2023 19:59</t>
         </is>
       </c>
-      <c r="R21" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>15/08/2023 13:42</t>
-        </is>
-      </c>
-      <c r="T21" t="n">
-        <v>1.91</v>
-      </c>
-      <c r="U21" t="inlineStr">
-        <is>
-          <t>21/08/2023 19:58</t>
-        </is>
-      </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-fenerbahce/I5zvVYuo/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-adanademirspor/O2BwjzIA/</t>
         </is>
       </c>
     </row>
@@ -2505,22 +2505,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J23" t="n">
-        <v>1.72</v>
+        <v>1.53</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
@@ -2528,7 +2528,7 @@
         </is>
       </c>
       <c r="L23" t="n">
-        <v>2.1</v>
+        <v>1.76</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         </is>
       </c>
       <c r="N23" t="n">
-        <v>4.2</v>
+        <v>4.61</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2544,15 +2544,15 @@
         </is>
       </c>
       <c r="P23" t="n">
-        <v>3.66</v>
+        <v>3.9</v>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:06</t>
+          <t>26/08/2023 18:12</t>
         </is>
       </c>
       <c r="R23" t="n">
-        <v>4.6</v>
+        <v>6.03</v>
       </c>
       <c r="S23" t="inlineStr">
         <is>
@@ -2560,16 +2560,16 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>3.57</v>
+        <v>4.89</v>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>26/08/2023 18:12</t>
+          <t>26/08/2023 18:09</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
         </is>
       </c>
     </row>
@@ -2597,22 +2597,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>1.53</v>
+        <v>1.72</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
@@ -2620,7 +2620,7 @@
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.76</v>
+        <v>2.1</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="N24" t="n">
-        <v>4.61</v>
+        <v>4.2</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2636,32 +2636,32 @@
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.9</v>
+        <v>3.66</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
+          <t>26/08/2023 18:06</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>22/08/2023 07:12</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
           <t>26/08/2023 18:12</t>
         </is>
       </c>
-      <c r="R24" t="n">
-        <v>6.03</v>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>22/08/2023 07:12</t>
-        </is>
-      </c>
-      <c r="T24" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>26/08/2023 18:09</t>
-        </is>
-      </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-rizespor/xA7EimgF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-pendikspor/llRJV5We/</t>
         </is>
       </c>
     </row>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>2</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>2</v>
-      </c>
       <c r="J75" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>4.71</v>
+        <v>2.13</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:57</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>4.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:55</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>1.79</v>
+        <v>4.57</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>2</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.13</v>
+        <v>4.71</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:57</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:55</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>4.57</v>
+        <v>1.79</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
         </is>
       </c>
     </row>
@@ -7933,7 +7933,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G82" t="n">
@@ -7941,14 +7941,14 @@
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J82" t="n">
-        <v>1.69</v>
+        <v>2.8</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -7956,15 +7956,15 @@
         </is>
       </c>
       <c r="L82" t="n">
-        <v>1.97</v>
+        <v>2.66</v>
       </c>
       <c r="M82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="N82" t="n">
-        <v>3.96</v>
+        <v>3.44</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
@@ -7972,15 +7972,15 @@
         </is>
       </c>
       <c r="P82" t="n">
-        <v>3.53</v>
+        <v>3.25</v>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:54</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="R82" t="n">
-        <v>4.99</v>
+        <v>2.56</v>
       </c>
       <c r="S82" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
         </is>
       </c>
       <c r="T82" t="n">
-        <v>4.19</v>
+        <v>2.91</v>
       </c>
       <c r="U82" t="inlineStr">
         <is>
-          <t>21/10/2023 14:59</t>
+          <t>21/10/2023 14:56</t>
         </is>
       </c>
       <c r="V82" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
         </is>
       </c>
     </row>
@@ -8025,7 +8025,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G83" t="n">
@@ -8033,14 +8033,14 @@
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J83" t="n">
-        <v>2.8</v>
+        <v>1.69</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -8048,15 +8048,15 @@
         </is>
       </c>
       <c r="L83" t="n">
-        <v>2.66</v>
+        <v>1.97</v>
       </c>
       <c r="M83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="N83" t="n">
-        <v>3.44</v>
+        <v>3.96</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
@@ -8064,15 +8064,15 @@
         </is>
       </c>
       <c r="P83" t="n">
-        <v>3.25</v>
+        <v>3.53</v>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:54</t>
         </is>
       </c>
       <c r="R83" t="n">
-        <v>2.56</v>
+        <v>4.99</v>
       </c>
       <c r="S83" t="inlineStr">
         <is>
@@ -8080,16 +8080,16 @@
         </is>
       </c>
       <c r="T83" t="n">
-        <v>2.91</v>
+        <v>4.19</v>
       </c>
       <c r="U83" t="inlineStr">
         <is>
-          <t>21/10/2023 14:56</t>
+          <t>21/10/2023 14:59</t>
         </is>
       </c>
       <c r="V83" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-antalyaspor/CtyRzJUd/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-pendikspor/KCRoWfqS/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J88" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -9037,71 +9037,71 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>3</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>1</v>
-      </c>
       <c r="J94" t="n">
-        <v>5.1</v>
+        <v>1.73</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="L94" t="n">
-        <v>7.86</v>
+        <v>1.83</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:58</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>4.48</v>
+        <v>4.22</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="P94" t="n">
-        <v>5.37</v>
+        <v>3.99</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.6</v>
+        <v>4.54</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>23/10/2023 19:12</t>
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.39</v>
+        <v>4.27</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>28/10/2023 17:37</t>
+          <t>28/10/2023 17:59</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,71 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J95" t="n">
-        <v>1.73</v>
+        <v>5.1</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L95" t="n">
-        <v>1.83</v>
+        <v>7.86</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:58</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>4.22</v>
+        <v>4.48</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.99</v>
+        <v>5.37</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>4.54</v>
+        <v>1.6</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>23/10/2023 19:12</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T95" t="n">
-        <v>4.27</v>
+        <v>1.39</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>28/10/2023 17:59</t>
+          <t>28/10/2023 17:37</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-konyaspor/Y948mdE2/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-galatasaray/vBmiuYLr/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J98" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,7 +9428,7 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,7 +9460,7 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G99" t="n">
+        <v>2</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I99" t="n">
-        <v>5</v>
-      </c>
       <c r="J99" t="n">
-        <v>7.87</v>
+        <v>2.19</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>10.56</v>
+        <v>2.7</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>5.68</v>
+        <v>3.59</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,32 +9536,32 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>6.22</v>
+        <v>3.32</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
+          <t>29/10/2023 16:54</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
           <t>29/10/2023 16:59</t>
         </is>
       </c>
-      <c r="R99" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="S99" t="inlineStr">
-        <is>
-          <t>23/10/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T99" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="U99" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:59</t>
-        </is>
-      </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -10417,30 +10417,30 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Gaziantep</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
       <c r="J109" t="n">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
-          <t>30/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.2</v>
+        <v>1.96</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
@@ -10448,31 +10448,31 @@
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.54</v>
+        <v>3.7</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
-          <t>30/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.33</v>
+        <v>3.6</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>06/11/2023 17:52</t>
+          <t>06/11/2023 17:59</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.08</v>
+        <v>3.45</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>30/10/2023 18:12</t>
+          <t>30/10/2023 02:12</t>
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.66</v>
+        <v>4.15</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
@@ -10481,7 +10481,7 @@
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-rizespor/pUkr0Zc8/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-alanyaspor/YXnevhyk/</t>
         </is>
       </c>
     </row>
@@ -10509,30 +10509,30 @@
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Gaziantep</t>
         </is>
       </c>
       <c r="G110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
       <c r="J110" t="n">
-        <v>2.09</v>
+        <v>2.32</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>30/10/2023 18:12</t>
         </is>
       </c>
       <c r="L110" t="n">
-        <v>1.96</v>
+        <v>2.2</v>
       </c>
       <c r="M110" t="inlineStr">
         <is>
@@ -10540,31 +10540,31 @@
         </is>
       </c>
       <c r="N110" t="n">
-        <v>3.7</v>
+        <v>3.54</v>
       </c>
       <c r="O110" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>30/10/2023 18:12</t>
         </is>
       </c>
       <c r="P110" t="n">
-        <v>3.6</v>
+        <v>3.33</v>
       </c>
       <c r="Q110" t="inlineStr">
         <is>
-          <t>06/11/2023 17:59</t>
+          <t>06/11/2023 17:52</t>
         </is>
       </c>
       <c r="R110" t="n">
-        <v>3.45</v>
+        <v>3.08</v>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>30/10/2023 02:12</t>
+          <t>30/10/2023 18:12</t>
         </is>
       </c>
       <c r="T110" t="n">
-        <v>4.15</v>
+        <v>3.66</v>
       </c>
       <c r="U110" t="inlineStr">
         <is>
@@ -10573,7 +10573,7 @@
       </c>
       <c r="V110" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-alanyaspor/YXnevhyk/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-rizespor/pUkr0Zc8/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:56</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>4.44</v>
+        <v>3.94</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>5.79</v>
+        <v>4.32</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:52</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:56</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>3.94</v>
+        <v>4.44</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>4.32</v>
+        <v>5.79</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:52</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J127" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J130" t="n">
-        <v>1.74</v>
+        <v>2.91</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="R130" t="n">
-        <v>4.9</v>
+        <v>2.55</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>3.58</v>
+        <v>2.33</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/11/2023 17:59</t>
+          <t>27/11/2023 17:57</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-pendikspor/pA5z8Nen/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-trabzonspor/zabm5Lu5/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J131" t="n">
-        <v>2.91</v>
+        <v>1.74</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>3.3</v>
+        <v>2.16</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>2.55</v>
+        <v>4.9</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.33</v>
+        <v>3.58</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/11/2023 17:57</t>
+          <t>27/11/2023 17:59</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-trabzonspor/zabm5Lu5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-pendikspor/pA5z8Nen/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,48 +14212,48 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>11/12/2023 17:58</t>
+          <t>11/12/2023 17:33</t>
         </is>
       </c>
       <c r="N150" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
         <v>3.41</v>
       </c>
-      <c r="O150" t="inlineStr">
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S150" t="inlineStr">
         <is>
           <t>04/12/2023 18:12</t>
         </is>
       </c>
-      <c r="P150" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q150" t="inlineStr">
-        <is>
-          <t>11/12/2023 17:58</t>
-        </is>
-      </c>
-      <c r="R150" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S150" t="inlineStr">
-        <is>
-          <t>04/12/2023 18:12</t>
-        </is>
-      </c>
       <c r="T150" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>11/12/2023 17:58</t>
+          <t>11/12/2023 17:33</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-rizespor/tWH4Uy9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-sivasspor/IeuYC9wq/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,15 +14304,15 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>11/12/2023 17:33</t>
+          <t>11/12/2023 17:58</t>
         </is>
       </c>
       <c r="N151" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="O151" t="inlineStr">
         <is>
@@ -14320,15 +14320,15 @@
         </is>
       </c>
       <c r="P151" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="Q151" t="inlineStr">
         <is>
-          <t>11/12/2023 17:33</t>
+          <t>11/12/2023 17:58</t>
         </is>
       </c>
       <c r="R151" t="n">
-        <v>3.51</v>
+        <v>3.6</v>
       </c>
       <c r="S151" t="inlineStr">
         <is>
@@ -14336,16 +14336,16 @@
         </is>
       </c>
       <c r="T151" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>11/12/2023 17:33</t>
+          <t>11/12/2023 17:58</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-sivasspor/IeuYC9wq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-rizespor/tWH4Uy9G/</t>
         </is>
       </c>
     </row>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J159" t="n">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>14/12/2023 18:13</t>
+          <t>14/12/2023 18:12</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>21/12/2023 17:56</t>
+          <t>21/12/2023 17:55</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>3.67</v>
+        <v>4.9</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>14/12/2023 18:13</t>
+          <t>14/12/2023 18:12</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>3.45</v>
+        <v>4.32</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>21/12/2023 17:59</t>
+          <t>21/12/2023 17:55</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>3.82</v>
+        <v>7</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>14/12/2023 18:13</t>
+          <t>14/12/2023 18:12</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>3.36</v>
+        <v>5.26</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>21/12/2023 17:59</t>
+          <t>21/12/2023 17:57</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-hatayspor/Iw6iNEIm/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-alanyaspor/l41mOf3s/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,991 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G160" t="n">
+        <v>0</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L160" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="N160" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P160" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q160" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R160" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="S160" t="inlineStr">
+        <is>
+          <t>14/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T160" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="U160" t="inlineStr">
+        <is>
+          <t>21/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="V160" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-hatayspor/Iw6iNEIm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45283.47916666666</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="G161" t="n">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L161" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N161" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P161" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="Q161" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R161" t="n">
+        <v>5.38</v>
+      </c>
+      <c r="S161" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T161" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="U161" t="inlineStr">
+        <is>
+          <t>23/12/2023 11:27</t>
+        </is>
+      </c>
+      <c r="V161" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-istanbulspor-as/4AdRZi2g/</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45283.58333333334</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="G162" t="n">
+        <v>0</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>3</v>
+      </c>
+      <c r="J162" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L162" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="N162" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P162" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="Q162" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:50</t>
+        </is>
+      </c>
+      <c r="R162" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="S162" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T162" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U162" t="inlineStr">
+        <is>
+          <t>23/12/2023 13:44</t>
+        </is>
+      </c>
+      <c r="V162" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-gaziantep/j3GjtfPP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45283.70833333334</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="G163" t="n">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L163" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:47</t>
+        </is>
+      </c>
+      <c r="N163" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P163" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q163" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:50</t>
+        </is>
+      </c>
+      <c r="R163" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="S163" t="inlineStr">
+        <is>
+          <t>19/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T163" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="U163" t="inlineStr">
+        <is>
+          <t>23/12/2023 16:59</t>
+        </is>
+      </c>
+      <c r="V163" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-basaksehir/8r3IyEXt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E164" s="2" t="n">
+        <v>45284.47916666666</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>Konyaspor</t>
+        </is>
+      </c>
+      <c r="G164" t="n">
+        <v>2</v>
+      </c>
+      <c r="H164" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L164" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="N164" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P164" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="Q164" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:24</t>
+        </is>
+      </c>
+      <c r="R164" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="S164" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T164" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="U164" t="inlineStr">
+        <is>
+          <t>24/12/2023 11:25</t>
+        </is>
+      </c>
+      <c r="V164" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-kayserispor/r1eVYBHa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E165" s="2" t="n">
+        <v>45284.58333333334</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="G165" t="n">
+        <v>2</v>
+      </c>
+      <c r="H165" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L165" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N165" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P165" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q165" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R165" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S165" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T165" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="U165" t="inlineStr">
+        <is>
+          <t>24/12/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V165" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/adanademirspor-antalyaspor/CCHnszAJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E166" s="2" t="n">
+        <v>45284.70833333334</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="L166" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N166" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="P166" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q166" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:56</t>
+        </is>
+      </c>
+      <c r="R166" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S166" t="inlineStr">
+        <is>
+          <t>20/12/2023 18:13</t>
+        </is>
+      </c>
+      <c r="T166" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="U166" t="inlineStr">
+        <is>
+          <t>24/12/2023 16:58</t>
+        </is>
+      </c>
+      <c r="V166" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-galatasaray/Mo7MzYnm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E167" s="2" t="n">
+        <v>45285.625</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="G167" t="n">
+        <v>2</v>
+      </c>
+      <c r="H167" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="I167" t="n">
+        <v>2</v>
+      </c>
+      <c r="J167" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="L167" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="N167" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="P167" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="Q167" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="R167" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S167" t="inlineStr">
+        <is>
+          <t>21/12/2023 15:12</t>
+        </is>
+      </c>
+      <c r="T167" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U167" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:58</t>
+        </is>
+      </c>
+      <c r="V167" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-rizespor/nJc8JWHC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E168" s="2" t="n">
+        <v>45285.625</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="G168" t="n">
+        <v>3</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L168" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:53</t>
+        </is>
+      </c>
+      <c r="N168" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P168" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Q168" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R168" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="S168" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T168" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="U168" t="inlineStr">
+        <is>
+          <t>25/12/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V168" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-samsunspor/Q9dCIjXI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E169" s="2" t="n">
+        <v>45285.75</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="G169" t="n">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
           <t>Besiktas</t>
         </is>
       </c>
-      <c r="G160" t="n">
+      <c r="I169" t="n">
+        <v>2</v>
+      </c>
+      <c r="J169" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L169" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:55</t>
+        </is>
+      </c>
+      <c r="N169" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P169" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q169" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:26</t>
+        </is>
+      </c>
+      <c r="R169" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S169" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T169" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="U169" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:56</t>
+        </is>
+      </c>
+      <c r="V169" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-besiktas/vgf0Lhm0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45285.75</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="G170" t="n">
         <v>1</v>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>Alanyaspor</t>
-        </is>
-      </c>
-      <c r="I160" t="n">
-        <v>3</v>
-      </c>
-      <c r="J160" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>14/12/2023 18:12</t>
-        </is>
-      </c>
-      <c r="L160" t="n">
-        <v>1.64</v>
-      </c>
-      <c r="M160" t="inlineStr">
-        <is>
-          <t>21/12/2023 17:55</t>
-        </is>
-      </c>
-      <c r="N160" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="O160" t="inlineStr">
-        <is>
-          <t>14/12/2023 18:12</t>
-        </is>
-      </c>
-      <c r="P160" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="Q160" t="inlineStr">
-        <is>
-          <t>21/12/2023 17:55</t>
-        </is>
-      </c>
-      <c r="R160" t="n">
-        <v>7</v>
-      </c>
-      <c r="S160" t="inlineStr">
-        <is>
-          <t>14/12/2023 18:12</t>
-        </is>
-      </c>
-      <c r="T160" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="U160" t="inlineStr">
-        <is>
-          <t>21/12/2023 17:57</t>
-        </is>
-      </c>
-      <c r="V160" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-alanyaspor/l41mOf3s/</t>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="L170" t="n">
+        <v>3.13</v>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="N170" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P170" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="Q170" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="R170" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="S170" t="inlineStr">
+        <is>
+          <t>21/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="T170" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U170" t="inlineStr">
+        <is>
+          <t>25/12/2023 17:58</t>
+        </is>
+      </c>
+      <c r="V170" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-ankaragucu/hdb4KC26/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V170"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15017,71 +15017,71 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I159" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>1.43</v>
+        <v>1.97</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
-          <t>14/12/2023 18:12</t>
+          <t>14/12/2023 18:13</t>
         </is>
       </c>
       <c r="L159" t="n">
-        <v>1.64</v>
+        <v>2.27</v>
       </c>
       <c r="M159" t="inlineStr">
         <is>
-          <t>21/12/2023 17:55</t>
+          <t>21/12/2023 17:56</t>
         </is>
       </c>
       <c r="N159" t="n">
-        <v>4.9</v>
+        <v>3.67</v>
       </c>
       <c r="O159" t="inlineStr">
         <is>
-          <t>14/12/2023 18:12</t>
+          <t>14/12/2023 18:13</t>
         </is>
       </c>
       <c r="P159" t="n">
-        <v>4.32</v>
+        <v>3.45</v>
       </c>
       <c r="Q159" t="inlineStr">
         <is>
-          <t>21/12/2023 17:55</t>
+          <t>21/12/2023 17:59</t>
         </is>
       </c>
       <c r="R159" t="n">
-        <v>7</v>
+        <v>3.82</v>
       </c>
       <c r="S159" t="inlineStr">
         <is>
-          <t>14/12/2023 18:12</t>
+          <t>14/12/2023 18:13</t>
         </is>
       </c>
       <c r="T159" t="n">
-        <v>5.26</v>
+        <v>3.36</v>
       </c>
       <c r="U159" t="inlineStr">
         <is>
-          <t>21/12/2023 17:57</t>
+          <t>21/12/2023 17:59</t>
         </is>
       </c>
       <c r="V159" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-alanyaspor/l41mOf3s/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-hatayspor/Iw6iNEIm/</t>
         </is>
       </c>
     </row>
@@ -15109,71 +15109,71 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J160" t="n">
-        <v>1.97</v>
+        <v>1.43</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
-          <t>14/12/2023 18:13</t>
+          <t>14/12/2023 18:12</t>
         </is>
       </c>
       <c r="L160" t="n">
-        <v>2.27</v>
+        <v>1.64</v>
       </c>
       <c r="M160" t="inlineStr">
         <is>
-          <t>21/12/2023 17:56</t>
+          <t>21/12/2023 17:55</t>
         </is>
       </c>
       <c r="N160" t="n">
-        <v>3.67</v>
+        <v>4.9</v>
       </c>
       <c r="O160" t="inlineStr">
         <is>
-          <t>14/12/2023 18:13</t>
+          <t>14/12/2023 18:12</t>
         </is>
       </c>
       <c r="P160" t="n">
-        <v>3.45</v>
+        <v>4.32</v>
       </c>
       <c r="Q160" t="inlineStr">
         <is>
-          <t>21/12/2023 17:59</t>
+          <t>21/12/2023 17:55</t>
         </is>
       </c>
       <c r="R160" t="n">
-        <v>3.82</v>
+        <v>7</v>
       </c>
       <c r="S160" t="inlineStr">
         <is>
-          <t>14/12/2023 18:13</t>
+          <t>14/12/2023 18:12</t>
         </is>
       </c>
       <c r="T160" t="n">
-        <v>3.36</v>
+        <v>5.26</v>
       </c>
       <c r="U160" t="inlineStr">
         <is>
-          <t>21/12/2023 17:59</t>
+          <t>21/12/2023 17:57</t>
         </is>
       </c>
       <c r="V160" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-hatayspor/Iw6iNEIm/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-alanyaspor/l41mOf3s/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J167" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>21/12/2023 15:12</t>
+          <t>21/12/2023 18:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>25/12/2023 14:58</t>
+          <t>25/12/2023 14:53</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>21/12/2023 15:12</t>
+          <t>21/12/2023 18:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.68</v>
+        <v>3.24</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>25/12/2023 14:58</t>
+          <t>25/12/2023 14:55</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>3.87</v>
+        <v>2.76</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>21/12/2023 15:12</t>
+          <t>21/12/2023 18:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>25/12/2023 14:58</t>
+          <t>25/12/2023 14:51</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-rizespor/nJc8JWHC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-samsunspor/Q9dCIjXI/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J168" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>21/12/2023 18:12</t>
+          <t>21/12/2023 15:12</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>25/12/2023 14:53</t>
+          <t>25/12/2023 14:58</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>21/12/2023 18:12</t>
+          <t>21/12/2023 15:12</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.24</v>
+        <v>3.68</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>25/12/2023 14:55</t>
+          <t>25/12/2023 14:58</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>2.76</v>
+        <v>3.87</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>21/12/2023 18:12</t>
+          <t>21/12/2023 15:12</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>25/12/2023 14:51</t>
+          <t>25/12/2023 14:58</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-samsunspor/Q9dCIjXI/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-rizespor/nJc8JWHC/</t>
         </is>
       </c>
     </row>
@@ -16094,6 +16094,98 @@
       <c r="V170" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-ankaragucu/hdb4KC26/</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45296.625</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="G171" t="n">
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Pendikspor</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>2</v>
+      </c>
+      <c r="J171" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>28/12/2024 15:42</t>
+        </is>
+      </c>
+      <c r="L171" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>05/01/2024 14:56</t>
+        </is>
+      </c>
+      <c r="N171" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>28/12/2024 15:42</t>
+        </is>
+      </c>
+      <c r="P171" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q171" t="inlineStr">
+        <is>
+          <t>05/01/2024 14:56</t>
+        </is>
+      </c>
+      <c r="R171" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="S171" t="inlineStr">
+        <is>
+          <t>28/12/2024 15:42</t>
+        </is>
+      </c>
+      <c r="T171" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U171" t="inlineStr">
+        <is>
+          <t>05/01/2024 14:56</t>
+        </is>
+      </c>
+      <c r="V171" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-pendikspor/bTuUgDgP/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,31 +4928,31 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R49" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T49" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U49" t="inlineStr">
         <is>
@@ -4961,7 +4961,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,40 +5020,40 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R50" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T50" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T50" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5449,22 +5449,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I55" t="n">
         <v>1</v>
       </c>
       <c r="J55" t="n">
-        <v>5.29</v>
+        <v>2.79</v>
       </c>
       <c r="K55" t="inlineStr">
         <is>
@@ -5472,7 +5472,7 @@
         </is>
       </c>
       <c r="L55" t="n">
-        <v>5.65</v>
+        <v>3.51</v>
       </c>
       <c r="M55" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>4.73</v>
+        <v>3.85</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -5488,7 +5488,7 @@
         </is>
       </c>
       <c r="P55" t="n">
-        <v>4.49</v>
+        <v>4.14</v>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="R55" t="n">
-        <v>1.57</v>
+        <v>2.37</v>
       </c>
       <c r="S55" t="inlineStr">
         <is>
@@ -5504,16 +5504,16 @@
         </is>
       </c>
       <c r="T55" t="n">
-        <v>1.58</v>
+        <v>1.99</v>
       </c>
       <c r="U55" t="inlineStr">
         <is>
-          <t>24/09/2023 18:59</t>
+          <t>24/09/2023 18:58</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
         </is>
       </c>
     </row>
@@ -5541,22 +5541,22 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I56" t="n">
         <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2.79</v>
+        <v>5.29</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
@@ -5564,7 +5564,7 @@
         </is>
       </c>
       <c r="L56" t="n">
-        <v>3.51</v>
+        <v>5.65</v>
       </c>
       <c r="M56" t="inlineStr">
         <is>
@@ -5572,7 +5572,7 @@
         </is>
       </c>
       <c r="N56" t="n">
-        <v>3.85</v>
+        <v>4.73</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -5580,7 +5580,7 @@
         </is>
       </c>
       <c r="P56" t="n">
-        <v>4.14</v>
+        <v>4.49</v>
       </c>
       <c r="Q56" t="inlineStr">
         <is>
@@ -5588,7 +5588,7 @@
         </is>
       </c>
       <c r="R56" t="n">
-        <v>2.37</v>
+        <v>1.57</v>
       </c>
       <c r="S56" t="inlineStr">
         <is>
@@ -5596,16 +5596,16 @@
         </is>
       </c>
       <c r="T56" t="n">
-        <v>1.99</v>
+        <v>1.58</v>
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>24/09/2023 18:58</t>
+          <t>24/09/2023 18:59</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-adanademirspor/OO4I7aqD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-fenerbahce/2F3M6JbJ/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Galatasaray</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
         <v>2</v>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Gaziantep</t>
-        </is>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
       <c r="J75" t="n">
-        <v>1.75</v>
+        <v>4.3</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.13</v>
+        <v>4.71</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:57</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.99</v>
+        <v>4.08</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.49</v>
+        <v>4.09</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:55</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>4.57</v>
+        <v>1.79</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>04/10/2023 04:43</t>
+          <t>30/09/2023 17:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>3.68</v>
+        <v>1.74</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>07/10/2023 17:58</t>
+          <t>07/10/2023 17:59</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>2</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Gaziantep</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Galatasaray</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>2</v>
-      </c>
       <c r="J76" t="n">
-        <v>4.3</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>4.71</v>
+        <v>2.13</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:57</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>4.08</v>
+        <v>3.99</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>4.09</v>
+        <v>3.49</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:55</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>1.79</v>
+        <v>4.57</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>30/09/2023 17:13</t>
+          <t>04/10/2023 04:43</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.74</v>
+        <v>3.68</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>07/10/2023 17:59</t>
+          <t>07/10/2023 17:58</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-galatasaray/IJFiMJF3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-gaziantep/OdGmNa0c/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>3.24</v>
+        <v>1.67</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>3.31</v>
+        <v>1.68</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.56</v>
+        <v>4.06</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,15 +12112,15 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.5</v>
+        <v>3.88</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="R127" t="n">
-        <v>2.23</v>
+        <v>5.07</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,16 +12128,16 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>2.27</v>
+        <v>5.55</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
-          <t>26/11/2023 13:57</t>
+          <t>26/11/2023 13:55</t>
         </is>
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J128" t="n">
-        <v>1.67</v>
+        <v>3.24</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,7 +12188,7 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>1.68</v>
+        <v>3.31</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="N128" t="n">
-        <v>4.06</v>
+        <v>3.56</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>3.88</v>
+        <v>3.5</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>5.07</v>
+        <v>2.23</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,16 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>5.55</v>
+        <v>2.27</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>26/11/2023 13:55</t>
+          <t>26/11/2023 13:57</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-rizespor/2o0u7sBh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-besiktas/UcVQmKAU/</t>
         </is>
       </c>
     </row>
@@ -14189,22 +14189,22 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I150" t="n">
         <v>1</v>
       </c>
       <c r="J150" t="n">
-        <v>2.17</v>
+        <v>2.14</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -14212,15 +14212,15 @@
         </is>
       </c>
       <c r="L150" t="n">
-        <v>2.09</v>
+        <v>2.04</v>
       </c>
       <c r="M150" t="inlineStr">
         <is>
-          <t>11/12/2023 17:33</t>
+          <t>11/12/2023 17:58</t>
         </is>
       </c>
       <c r="N150" t="n">
-        <v>3.4</v>
+        <v>3.41</v>
       </c>
       <c r="O150" t="inlineStr">
         <is>
@@ -14228,15 +14228,15 @@
         </is>
       </c>
       <c r="P150" t="n">
-        <v>3.41</v>
+        <v>3.62</v>
       </c>
       <c r="Q150" t="inlineStr">
         <is>
-          <t>11/12/2023 17:33</t>
+          <t>11/12/2023 17:58</t>
         </is>
       </c>
       <c r="R150" t="n">
-        <v>3.51</v>
+        <v>3.6</v>
       </c>
       <c r="S150" t="inlineStr">
         <is>
@@ -14244,16 +14244,16 @@
         </is>
       </c>
       <c r="T150" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="U150" t="inlineStr">
         <is>
-          <t>11/12/2023 17:33</t>
+          <t>11/12/2023 17:58</t>
         </is>
       </c>
       <c r="V150" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-sivasspor/IeuYC9wq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-rizespor/tWH4Uy9G/</t>
         </is>
       </c>
     </row>
@@ -14281,22 +14281,22 @@
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I151" t="n">
         <v>1</v>
       </c>
       <c r="J151" t="n">
-        <v>2.14</v>
+        <v>2.17</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -14304,48 +14304,48 @@
         </is>
       </c>
       <c r="L151" t="n">
-        <v>2.04</v>
+        <v>2.09</v>
       </c>
       <c r="M151" t="inlineStr">
         <is>
-          <t>11/12/2023 17:58</t>
+          <t>11/12/2023 17:33</t>
         </is>
       </c>
       <c r="N151" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>04/12/2023 18:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
         <v>3.41</v>
       </c>
-      <c r="O151" t="inlineStr">
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>11/12/2023 17:33</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="S151" t="inlineStr">
         <is>
           <t>04/12/2023 18:12</t>
         </is>
       </c>
-      <c r="P151" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Q151" t="inlineStr">
-        <is>
-          <t>11/12/2023 17:58</t>
-        </is>
-      </c>
-      <c r="R151" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="S151" t="inlineStr">
-        <is>
-          <t>04/12/2023 18:12</t>
-        </is>
-      </c>
       <c r="T151" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="U151" t="inlineStr">
         <is>
-          <t>11/12/2023 17:58</t>
+          <t>11/12/2023 17:33</t>
         </is>
       </c>
       <c r="V151" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-rizespor/tWH4Uy9G/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/konyaspor-sivasspor/IeuYC9wq/</t>
         </is>
       </c>
     </row>
@@ -16186,6 +16186,190 @@
       <c r="V171" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/gaziantep-pendikspor/bTuUgDgP/</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45296.75</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Antalyaspor</t>
+        </is>
+      </c>
+      <c r="G172" t="n">
+        <v>0</v>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Alanyaspor</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>0</v>
+      </c>
+      <c r="J172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>28/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>05/01/2024 17:40</t>
+        </is>
+      </c>
+      <c r="N172" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>28/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="P172" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Q172" t="inlineStr">
+        <is>
+          <t>05/01/2024 17:40</t>
+        </is>
+      </c>
+      <c r="R172" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="S172" t="inlineStr">
+        <is>
+          <t>28/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="T172" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U172" t="inlineStr">
+        <is>
+          <t>05/01/2024 17:39</t>
+        </is>
+      </c>
+      <c r="V172" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-alanyaspor/IDM0liHn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45296.75</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Besiktas</t>
+        </is>
+      </c>
+      <c r="G173" t="n">
+        <v>1</v>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>Kasimpasa</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>3</v>
+      </c>
+      <c r="J173" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>28/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>05/01/2024 17:57</t>
+        </is>
+      </c>
+      <c r="N173" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>28/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="P173" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="Q173" t="inlineStr">
+        <is>
+          <t>05/01/2024 17:57</t>
+        </is>
+      </c>
+      <c r="R173" t="n">
+        <v>5</v>
+      </c>
+      <c r="S173" t="inlineStr">
+        <is>
+          <t>28/12/2024 18:43</t>
+        </is>
+      </c>
+      <c r="T173" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U173" t="inlineStr">
+        <is>
+          <t>05/01/2024 17:59</t>
+        </is>
+      </c>
+      <c r="V173" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kasimpasa/d4L4mBWh/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V173"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J91" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G92" t="n">
+        <v>3</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
         <v>1</v>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I92" t="n">
-        <v>2</v>
-      </c>
       <c r="J92" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -9313,71 +9313,71 @@
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>2.03</v>
+        <v>2.19</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="L97" t="n">
-        <v>2.11</v>
+        <v>2.7</v>
       </c>
       <c r="M97" t="inlineStr">
         <is>
+          <t>29/10/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>23/10/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
           <t>29/10/2023 16:54</t>
         </is>
       </c>
-      <c r="N97" t="n">
-        <v>3.51</v>
-      </c>
-      <c r="O97" t="inlineStr">
-        <is>
-          <t>22/10/2023 20:15</t>
-        </is>
-      </c>
-      <c r="P97" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="Q97" t="inlineStr">
-        <is>
-          <t>29/10/2023 16:54</t>
-        </is>
-      </c>
       <c r="R97" t="n">
-        <v>3.8</v>
+        <v>3.29</v>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>23/10/2023 05:42</t>
         </is>
       </c>
       <c r="T97" t="n">
-        <v>3.89</v>
+        <v>2.82</v>
       </c>
       <c r="U97" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="V97" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
         </is>
       </c>
     </row>
@@ -9405,71 +9405,71 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G98" t="n">
+        <v>1</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>Fenerbahce</t>
-        </is>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
       <c r="J98" t="n">
-        <v>7.87</v>
+        <v>2.03</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L98" t="n">
-        <v>10.56</v>
+        <v>2.11</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>5.68</v>
+        <v>3.51</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P98" t="n">
-        <v>6.22</v>
+        <v>3.35</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.35</v>
+        <v>3.8</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>23/10/2023 05:42</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.28</v>
+        <v>3.89</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>29/10/2023 16:59</t>
+          <t>29/10/2023 16:54</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-basaksehir/tz8GozqF/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J99" t="n">
-        <v>2.19</v>
+        <v>7.87</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,7 +9520,7 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.7</v>
+        <v>10.56</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
@@ -9528,7 +9528,7 @@
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.59</v>
+        <v>5.68</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.32</v>
+        <v>6.22</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>29/10/2023 16:54</t>
+          <t>29/10/2023 16:59</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>3.29</v>
+        <v>1.35</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,7 +9552,7 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.82</v>
+        <v>1.28</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
@@ -9561,7 +9561,7 @@
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-samsunspor/2kdPqEDR/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-fenerbahce/vc8IQY6k/</t>
         </is>
       </c>
     </row>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G119" t="n">
@@ -11345,63 +11345,63 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
       <c r="J119" t="n">
-        <v>1.8</v>
+        <v>1.55</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="L119" t="n">
-        <v>1.69</v>
+        <v>1.74</v>
       </c>
       <c r="M119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:56</t>
         </is>
       </c>
       <c r="N119" t="n">
-        <v>3.94</v>
+        <v>4.44</v>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="P119" t="n">
-        <v>4.01</v>
+        <v>3.84</v>
       </c>
       <c r="Q119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:53</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="R119" t="n">
-        <v>4.32</v>
+        <v>5.79</v>
       </c>
       <c r="S119" t="inlineStr">
         <is>
-          <t>06/11/2023 18:12</t>
+          <t>05/11/2023 17:12</t>
         </is>
       </c>
       <c r="T119" t="n">
-        <v>5.3</v>
+        <v>5.16</v>
       </c>
       <c r="U119" t="inlineStr">
         <is>
-          <t>12/11/2023 13:52</t>
+          <t>12/11/2023 13:59</t>
         </is>
       </c>
       <c r="V119" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
         </is>
       </c>
     </row>
@@ -11429,7 +11429,7 @@
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G120" t="n">
@@ -11437,63 +11437,63 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1.55</v>
+        <v>1.8</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="L120" t="n">
-        <v>1.74</v>
+        <v>1.69</v>
       </c>
       <c r="M120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:56</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="N120" t="n">
-        <v>4.44</v>
+        <v>3.94</v>
       </c>
       <c r="O120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="P120" t="n">
-        <v>3.84</v>
+        <v>4.01</v>
       </c>
       <c r="Q120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:53</t>
         </is>
       </c>
       <c r="R120" t="n">
-        <v>5.79</v>
+        <v>4.32</v>
       </c>
       <c r="S120" t="inlineStr">
         <is>
-          <t>05/11/2023 17:12</t>
+          <t>06/11/2023 18:12</t>
         </is>
       </c>
       <c r="T120" t="n">
-        <v>5.16</v>
+        <v>5.3</v>
       </c>
       <c r="U120" t="inlineStr">
         <is>
-          <t>12/11/2023 13:59</t>
+          <t>12/11/2023 13:52</t>
         </is>
       </c>
       <c r="V120" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-basaksehir/vkz2gOtg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-istanbulspor-as/04OAi2B5/</t>
         </is>
       </c>
     </row>
@@ -12349,22 +12349,22 @@
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="G130" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="I130" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J130" t="n">
-        <v>2.91</v>
+        <v>1.74</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -12372,7 +12372,7 @@
         </is>
       </c>
       <c r="L130" t="n">
-        <v>3.3</v>
+        <v>2.16</v>
       </c>
       <c r="M130" t="inlineStr">
         <is>
@@ -12380,7 +12380,7 @@
         </is>
       </c>
       <c r="N130" t="n">
-        <v>3.38</v>
+        <v>3.95</v>
       </c>
       <c r="O130" t="inlineStr">
         <is>
@@ -12388,7 +12388,7 @@
         </is>
       </c>
       <c r="P130" t="n">
-        <v>3.38</v>
+        <v>3.49</v>
       </c>
       <c r="Q130" t="inlineStr">
         <is>
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="R130" t="n">
-        <v>2.55</v>
+        <v>4.9</v>
       </c>
       <c r="S130" t="inlineStr">
         <is>
@@ -12404,16 +12404,16 @@
         </is>
       </c>
       <c r="T130" t="n">
-        <v>2.33</v>
+        <v>3.58</v>
       </c>
       <c r="U130" t="inlineStr">
         <is>
-          <t>27/11/2023 17:57</t>
+          <t>27/11/2023 17:59</t>
         </is>
       </c>
       <c r="V130" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-trabzonspor/zabm5Lu5/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-pendikspor/pA5z8Nen/</t>
         </is>
       </c>
     </row>
@@ -12441,22 +12441,22 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J131" t="n">
-        <v>1.74</v>
+        <v>2.91</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         </is>
       </c>
       <c r="L131" t="n">
-        <v>2.16</v>
+        <v>3.3</v>
       </c>
       <c r="M131" t="inlineStr">
         <is>
@@ -12472,7 +12472,7 @@
         </is>
       </c>
       <c r="N131" t="n">
-        <v>3.95</v>
+        <v>3.38</v>
       </c>
       <c r="O131" t="inlineStr">
         <is>
@@ -12480,7 +12480,7 @@
         </is>
       </c>
       <c r="P131" t="n">
-        <v>3.49</v>
+        <v>3.38</v>
       </c>
       <c r="Q131" t="inlineStr">
         <is>
@@ -12488,7 +12488,7 @@
         </is>
       </c>
       <c r="R131" t="n">
-        <v>4.9</v>
+        <v>2.55</v>
       </c>
       <c r="S131" t="inlineStr">
         <is>
@@ -12496,16 +12496,16 @@
         </is>
       </c>
       <c r="T131" t="n">
-        <v>3.58</v>
+        <v>2.33</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>27/11/2023 17:59</t>
+          <t>27/11/2023 17:57</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-pendikspor/pA5z8Nen/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/sivasspor-trabzonspor/zabm5Lu5/</t>
         </is>
       </c>
     </row>
@@ -12533,7 +12533,7 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G132" t="n">
@@ -12541,63 +12541,63 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J132" t="n">
-        <v>1.78</v>
+        <v>2.81</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>28/11/2023 06:42</t>
+          <t>26/11/2023 14:13</t>
         </is>
       </c>
       <c r="L132" t="n">
-        <v>1.72</v>
+        <v>3.47</v>
       </c>
       <c r="M132" t="inlineStr">
         <is>
-          <t>01/12/2023 17:59</t>
+          <t>01/12/2023 17:58</t>
         </is>
       </c>
       <c r="N132" t="n">
-        <v>3.82</v>
+        <v>3.42</v>
       </c>
       <c r="O132" t="inlineStr">
         <is>
-          <t>28/11/2023 06:42</t>
+          <t>26/11/2023 14:13</t>
         </is>
       </c>
       <c r="P132" t="n">
-        <v>3.86</v>
+        <v>3.39</v>
       </c>
       <c r="Q132" t="inlineStr">
         <is>
+          <t>01/12/2023 17:40</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>26/11/2023 14:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
           <t>01/12/2023 17:58</t>
         </is>
       </c>
-      <c r="R132" t="n">
-        <v>4.59</v>
-      </c>
-      <c r="S132" t="inlineStr">
-        <is>
-          <t>28/11/2023 06:42</t>
-        </is>
-      </c>
-      <c r="T132" t="n">
-        <v>5.26</v>
-      </c>
-      <c r="U132" t="inlineStr">
-        <is>
-          <t>01/12/2023 17:59</t>
-        </is>
-      </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-istanbulspor-as/fuPIK0uh/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-antalyaspor/Ucid3aAH/</t>
         </is>
       </c>
     </row>
@@ -12625,7 +12625,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G133" t="n">
@@ -12633,63 +12633,63 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J133" t="n">
-        <v>2.81</v>
+        <v>1.78</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>26/11/2023 14:13</t>
+          <t>28/11/2023 06:42</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>3.47</v>
+        <v>1.72</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
+          <t>01/12/2023 17:59</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>28/11/2023 06:42</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
           <t>01/12/2023 17:58</t>
         </is>
       </c>
-      <c r="N133" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O133" t="inlineStr">
-        <is>
-          <t>26/11/2023 14:13</t>
-        </is>
-      </c>
-      <c r="P133" t="n">
-        <v>3.39</v>
-      </c>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>01/12/2023 17:40</t>
-        </is>
-      </c>
       <c r="R133" t="n">
-        <v>2.57</v>
+        <v>4.59</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>26/11/2023 14:13</t>
+          <t>28/11/2023 06:42</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>2.25</v>
+        <v>5.26</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>01/12/2023 17:58</t>
+          <t>01/12/2023 17:59</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-antalyaspor/Ucid3aAH/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-istanbulspor-as/fuPIK0uh/</t>
         </is>
       </c>
     </row>
@@ -14649,22 +14649,22 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Galatasaray</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>1.74</v>
+        <v>1.23</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -14672,15 +14672,15 @@
         </is>
       </c>
       <c r="L155" t="n">
-        <v>2.01</v>
+        <v>1.27</v>
       </c>
       <c r="M155" t="inlineStr">
         <is>
-          <t>20/12/2023 17:57</t>
+          <t>20/12/2023 17:53</t>
         </is>
       </c>
       <c r="N155" t="n">
-        <v>3.98</v>
+        <v>6.94</v>
       </c>
       <c r="O155" t="inlineStr">
         <is>
@@ -14688,15 +14688,15 @@
         </is>
       </c>
       <c r="P155" t="n">
-        <v>3.75</v>
+        <v>6.61</v>
       </c>
       <c r="Q155" t="inlineStr">
         <is>
-          <t>20/12/2023 17:57</t>
+          <t>20/12/2023 17:59</t>
         </is>
       </c>
       <c r="R155" t="n">
-        <v>4.61</v>
+        <v>10.54</v>
       </c>
       <c r="S155" t="inlineStr">
         <is>
@@ -14704,16 +14704,16 @@
         </is>
       </c>
       <c r="T155" t="n">
-        <v>3.77</v>
+        <v>10.32</v>
       </c>
       <c r="U155" t="inlineStr">
         <is>
-          <t>20/12/2023 17:57</t>
+          <t>20/12/2023 17:59</t>
         </is>
       </c>
       <c r="V155" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kasimpasa/neFLSzeQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-f-karagumruk/02ZQ6gY6/</t>
         </is>
       </c>
     </row>
@@ -14741,22 +14741,22 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Galatasaray</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>1.23</v>
+        <v>1.74</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -14764,15 +14764,15 @@
         </is>
       </c>
       <c r="L156" t="n">
-        <v>1.27</v>
+        <v>2.01</v>
       </c>
       <c r="M156" t="inlineStr">
         <is>
-          <t>20/12/2023 17:53</t>
+          <t>20/12/2023 17:57</t>
         </is>
       </c>
       <c r="N156" t="n">
-        <v>6.94</v>
+        <v>3.98</v>
       </c>
       <c r="O156" t="inlineStr">
         <is>
@@ -14780,15 +14780,15 @@
         </is>
       </c>
       <c r="P156" t="n">
-        <v>6.61</v>
+        <v>3.75</v>
       </c>
       <c r="Q156" t="inlineStr">
         <is>
-          <t>20/12/2023 17:59</t>
+          <t>20/12/2023 17:57</t>
         </is>
       </c>
       <c r="R156" t="n">
-        <v>10.54</v>
+        <v>4.61</v>
       </c>
       <c r="S156" t="inlineStr">
         <is>
@@ -14796,16 +14796,16 @@
         </is>
       </c>
       <c r="T156" t="n">
-        <v>10.32</v>
+        <v>3.77</v>
       </c>
       <c r="U156" t="inlineStr">
         <is>
-          <t>20/12/2023 17:59</t>
+          <t>20/12/2023 17:57</t>
         </is>
       </c>
       <c r="V156" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/galatasaray-f-karagumruk/02ZQ6gY6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/antalyaspor-kasimpasa/neFLSzeQ/</t>
         </is>
       </c>
     </row>
@@ -15753,71 +15753,71 @@
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="I167" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J167" t="n">
-        <v>2.59</v>
+        <v>1.93</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
-          <t>21/12/2023 18:12</t>
+          <t>21/12/2023 15:12</t>
         </is>
       </c>
       <c r="L167" t="n">
-        <v>2.74</v>
+        <v>2.45</v>
       </c>
       <c r="M167" t="inlineStr">
         <is>
-          <t>25/12/2023 14:53</t>
+          <t>25/12/2023 14:58</t>
         </is>
       </c>
       <c r="N167" t="n">
-        <v>3.46</v>
+        <v>3.8</v>
       </c>
       <c r="O167" t="inlineStr">
         <is>
-          <t>21/12/2023 18:12</t>
+          <t>21/12/2023 15:12</t>
         </is>
       </c>
       <c r="P167" t="n">
-        <v>3.24</v>
+        <v>3.68</v>
       </c>
       <c r="Q167" t="inlineStr">
         <is>
-          <t>25/12/2023 14:55</t>
+          <t>25/12/2023 14:58</t>
         </is>
       </c>
       <c r="R167" t="n">
-        <v>2.76</v>
+        <v>3.87</v>
       </c>
       <c r="S167" t="inlineStr">
         <is>
-          <t>21/12/2023 18:12</t>
+          <t>21/12/2023 15:12</t>
         </is>
       </c>
       <c r="T167" t="n">
-        <v>2.83</v>
+        <v>2.87</v>
       </c>
       <c r="U167" t="inlineStr">
         <is>
-          <t>25/12/2023 14:51</t>
+          <t>25/12/2023 14:58</t>
         </is>
       </c>
       <c r="V167" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-samsunspor/Q9dCIjXI/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-rizespor/nJc8JWHC/</t>
         </is>
       </c>
     </row>
@@ -15845,71 +15845,71 @@
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="I168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J168" t="n">
-        <v>1.93</v>
+        <v>2.59</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
-          <t>21/12/2023 15:12</t>
+          <t>21/12/2023 18:12</t>
         </is>
       </c>
       <c r="L168" t="n">
-        <v>2.45</v>
+        <v>2.74</v>
       </c>
       <c r="M168" t="inlineStr">
         <is>
-          <t>25/12/2023 14:58</t>
+          <t>25/12/2023 14:53</t>
         </is>
       </c>
       <c r="N168" t="n">
-        <v>3.8</v>
+        <v>3.46</v>
       </c>
       <c r="O168" t="inlineStr">
         <is>
-          <t>21/12/2023 15:12</t>
+          <t>21/12/2023 18:12</t>
         </is>
       </c>
       <c r="P168" t="n">
-        <v>3.68</v>
+        <v>3.24</v>
       </c>
       <c r="Q168" t="inlineStr">
         <is>
-          <t>25/12/2023 14:58</t>
+          <t>25/12/2023 14:55</t>
         </is>
       </c>
       <c r="R168" t="n">
-        <v>3.87</v>
+        <v>2.76</v>
       </c>
       <c r="S168" t="inlineStr">
         <is>
-          <t>21/12/2023 15:12</t>
+          <t>21/12/2023 18:12</t>
         </is>
       </c>
       <c r="T168" t="n">
-        <v>2.87</v>
+        <v>2.83</v>
       </c>
       <c r="U168" t="inlineStr">
         <is>
-          <t>25/12/2023 14:58</t>
+          <t>25/12/2023 14:51</t>
         </is>
       </c>
       <c r="V168" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-rizespor/nJc8JWHC/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-samsunspor/Q9dCIjXI/</t>
         </is>
       </c>
     </row>
@@ -16370,6 +16370,374 @@
       <c r="V173" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kasimpasa/d4L4mBWh/</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45297.47916666666</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Rizespor</t>
+        </is>
+      </c>
+      <c r="G174" t="n">
+        <v>2</v>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Hatayspor</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:22</t>
+        </is>
+      </c>
+      <c r="N174" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P174" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q174" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:28</t>
+        </is>
+      </c>
+      <c r="R174" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="S174" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T174" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U174" t="inlineStr">
+        <is>
+          <t>06/01/2024 11:22</t>
+        </is>
+      </c>
+      <c r="V174" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-hatayspor/4UOCok15/</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45297.58333333334</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Basaksehir</t>
+        </is>
+      </c>
+      <c r="G175" t="n">
+        <v>0</v>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Adana Demirspor</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>0</v>
+      </c>
+      <c r="J175" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="N175" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P175" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q175" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:58</t>
+        </is>
+      </c>
+      <c r="R175" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="S175" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T175" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="U175" t="inlineStr">
+        <is>
+          <t>06/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="V175" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/basaksehir-adanademirspor/0xSekX1t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45297.70833333334</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Ankaragucu</t>
+        </is>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Trabzonspor</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>1</v>
+      </c>
+      <c r="J176" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="M176" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:59</t>
+        </is>
+      </c>
+      <c r="N176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P176" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:56</t>
+        </is>
+      </c>
+      <c r="R176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S176" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="U176" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:56</t>
+        </is>
+      </c>
+      <c r="V176" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-trabzonspor/jRK8nVoa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45297.70833333334</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Samsunspor</t>
+        </is>
+      </c>
+      <c r="G177" t="n">
+        <v>1</v>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Karagumruk</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>0</v>
+      </c>
+      <c r="J177" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="M177" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:58</t>
+        </is>
+      </c>
+      <c r="N177" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P177" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:58</t>
+        </is>
+      </c>
+      <c r="R177" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="S177" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T177" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="U177" t="inlineStr">
+        <is>
+          <t>06/01/2024 16:58</t>
+        </is>
+      </c>
+      <c r="V177" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-f-karagumruk/pQinVTGO/</t>
         </is>
       </c>
     </row>

--- a/2023/turkey_super-lig_2023-2024.xlsx
+++ b/2023/turkey_super-lig_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4253,22 +4253,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Istanbulspor AS</t>
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Antalyaspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I42" t="n">
         <v>2</v>
       </c>
       <c r="J42" t="n">
-        <v>1.33</v>
+        <v>2.28</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -4276,15 +4276,15 @@
         </is>
       </c>
       <c r="L42" t="n">
-        <v>1.4</v>
+        <v>3.62</v>
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:33</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>5.71</v>
+        <v>3.5</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4292,15 +4292,15 @@
         </is>
       </c>
       <c r="P42" t="n">
-        <v>5.43</v>
+        <v>3.47</v>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="R42" t="n">
-        <v>9.26</v>
+        <v>3.25</v>
       </c>
       <c r="S42" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         </is>
       </c>
       <c r="T42" t="n">
-        <v>7.36</v>
+        <v>2.16</v>
       </c>
       <c r="U42" t="inlineStr">
         <is>
-          <t>17/09/2023 15:37</t>
+          <t>17/09/2023 15:52</t>
         </is>
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
         </is>
       </c>
     </row>
@@ -4345,22 +4345,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Antalyaspor</t>
         </is>
       </c>
       <c r="I43" t="n">
         <v>2</v>
       </c>
       <c r="J43" t="n">
-        <v>2.28</v>
+        <v>1.33</v>
       </c>
       <c r="K43" t="inlineStr">
         <is>
@@ -4368,15 +4368,15 @@
         </is>
       </c>
       <c r="L43" t="n">
-        <v>3.62</v>
+        <v>1.4</v>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:33</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>3.5</v>
+        <v>5.71</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4384,15 +4384,15 @@
         </is>
       </c>
       <c r="P43" t="n">
-        <v>3.47</v>
+        <v>5.43</v>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="R43" t="n">
-        <v>3.25</v>
+        <v>9.26</v>
       </c>
       <c r="S43" t="inlineStr">
         <is>
@@ -4400,16 +4400,16 @@
         </is>
       </c>
       <c r="T43" t="n">
-        <v>2.16</v>
+        <v>7.36</v>
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>17/09/2023 15:52</t>
+          <t>17/09/2023 15:37</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-basaksehir/vDjWe2p1/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-antalyaspor/nJDcCNUs/</t>
         </is>
       </c>
     </row>
@@ -4437,7 +4437,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G44" t="n">
@@ -4445,14 +4445,14 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" t="n">
-        <v>2.76</v>
+        <v>2.07</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
@@ -4460,15 +4460,15 @@
         </is>
       </c>
       <c r="L44" t="n">
-        <v>3.28</v>
+        <v>1.95</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.66</v>
+        <v>3.85</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4476,15 +4476,15 @@
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.62</v>
+        <v>3.6</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:53</t>
         </is>
       </c>
       <c r="R44" t="n">
-        <v>2.52</v>
+        <v>3.46</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
@@ -4492,16 +4492,16 @@
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.24</v>
+        <v>4.17</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>17/09/2023 18:58</t>
+          <t>17/09/2023 18:59</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G45" t="n">
@@ -4537,14 +4537,14 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>2.07</v>
+        <v>2.76</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
@@ -4552,15 +4552,15 @@
         </is>
       </c>
       <c r="L45" t="n">
-        <v>1.95</v>
+        <v>3.28</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.85</v>
+        <v>3.66</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4568,15 +4568,15 @@
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.6</v>
+        <v>3.62</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:53</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.46</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
@@ -4584,16 +4584,16 @@
         </is>
       </c>
       <c r="T45" t="n">
-        <v>4.17</v>
+        <v>2.24</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>17/09/2023 18:59</t>
+          <t>17/09/2023 18:58</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/alanyaspor-kasimpasa/zupuftFD/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-besiktas/pARVG3MQ/</t>
         </is>
       </c>
     </row>
@@ -4897,7 +4897,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Rizespor</t>
         </is>
       </c>
       <c r="G49" t="n">
@@ -4905,22 +4905,22 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Sivasspor</t>
         </is>
       </c>
       <c r="I49" t="n">
         <v>1</v>
       </c>
       <c r="J49" t="n">
-        <v>2.78</v>
+        <v>2.16</v>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="L49" t="n">
-        <v>2.44</v>
+        <v>1.96</v>
       </c>
       <c r="M49" t="inlineStr">
         <is>
@@ -4928,40 +4928,40 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>3.49</v>
+        <v>3.65</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>21/09/2023 09:10</t>
+          <t>19/09/2023 14:42</t>
         </is>
       </c>
       <c r="P49" t="n">
-        <v>3.33</v>
+        <v>3.7</v>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
+          <t>23/09/2023 15:57</t>
+        </is>
+      </c>
+      <c r="R49" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>19/09/2023 14:42</t>
+        </is>
+      </c>
+      <c r="T49" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
           <t>23/09/2023 15:59</t>
         </is>
       </c>
-      <c r="R49" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="S49" t="inlineStr">
-        <is>
-          <t>21/09/2023 09:10</t>
-        </is>
-      </c>
-      <c r="T49" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U49" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:59</t>
-        </is>
-      </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
         </is>
       </c>
     </row>
@@ -4989,7 +4989,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Rizespor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G50" t="n">
@@ -4997,22 +4997,22 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Sivasspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="I50" t="n">
         <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2.16</v>
+        <v>2.78</v>
       </c>
       <c r="K50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="L50" t="n">
-        <v>1.96</v>
+        <v>2.44</v>
       </c>
       <c r="M50" t="inlineStr">
         <is>
@@ -5020,31 +5020,31 @@
         </is>
       </c>
       <c r="N50" t="n">
-        <v>3.65</v>
+        <v>3.49</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="P50" t="n">
-        <v>3.7</v>
+        <v>3.33</v>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>23/09/2023 15:57</t>
+          <t>23/09/2023 15:59</t>
         </is>
       </c>
       <c r="R50" t="n">
-        <v>3.39</v>
+        <v>2.55</v>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>19/09/2023 14:42</t>
+          <t>21/09/2023 09:10</t>
         </is>
       </c>
       <c r="T50" t="n">
-        <v>4.01</v>
+        <v>3.15</v>
       </c>
       <c r="U50" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/rizespor-sivasspor/ALCo7mAa/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-f-karagumruk/U15E8uU6/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I53" t="n">
         <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>2.23</v>
+        <v>1.38</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>2.51</v>
+        <v>1.37</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:30</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.7</v>
+        <v>5.56</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.43</v>
+        <v>5.4</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:41</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>3.13</v>
+        <v>7.64</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>18/09/2023 18:13</t>
+          <t>17/09/2023 18:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>2.97</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>24/09/2023 15:56</t>
+          <t>24/09/2023 15:53</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
         </is>
       </c>
     </row>
@@ -5357,71 +5357,71 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="G54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="I54" t="n">
         <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>1.38</v>
+        <v>2.23</v>
       </c>
       <c r="K54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="L54" t="n">
-        <v>1.37</v>
+        <v>2.51</v>
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:30</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>5.56</v>
+        <v>3.7</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="P54" t="n">
-        <v>5.4</v>
+        <v>3.43</v>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:41</t>
         </is>
       </c>
       <c r="R54" t="n">
-        <v>7.64</v>
+        <v>3.13</v>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>17/09/2023 18:12</t>
+          <t>18/09/2023 18:13</t>
         </is>
       </c>
       <c r="T54" t="n">
-        <v>8.720000000000001</v>
+        <v>2.97</v>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>24/09/2023 15:53</t>
+          <t>24/09/2023 15:56</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/besiktas-kayserispor/l6Ox99um/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/ankaragucu-konyaspor/WUDs8Tfg/</t>
         </is>
       </c>
     </row>
@@ -8393,71 +8393,71 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Basaksehir</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J87" t="n">
-        <v>2.33</v>
+        <v>1.23</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L87" t="n">
-        <v>2.29</v>
+        <v>1.16</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:54</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.47</v>
+        <v>7.13</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.37</v>
+        <v>8.59</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:56</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>3.11</v>
+        <v>12.3</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T87" t="n">
-        <v>3.39</v>
+        <v>17.77</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>22/10/2023 17:59</t>
+          <t>22/10/2023 17:57</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
         </is>
       </c>
     </row>
@@ -8485,71 +8485,71 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Basaksehir</t>
         </is>
       </c>
       <c r="I88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J88" t="n">
-        <v>1.23</v>
+        <v>2.33</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L88" t="n">
-        <v>1.16</v>
+        <v>2.29</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:54</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>7.13</v>
+        <v>3.47</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P88" t="n">
-        <v>8.59</v>
+        <v>3.37</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:56</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>12.3</v>
+        <v>3.11</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T88" t="n">
-        <v>17.77</v>
+        <v>3.39</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>22/10/2023 17:57</t>
+          <t>22/10/2023 17:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/fenerbahce-hatayspor/naTwYGEF/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-basaksehir/pzmqCZid/</t>
         </is>
       </c>
     </row>
@@ -8577,71 +8577,71 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Karagumruk</t>
+          <t>Trabzonspor</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Adana Demirspor</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>3.23</v>
+        <v>1.53</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.26</v>
+        <v>1.74</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.84</v>
+        <v>4.65</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.79</v>
+        <v>3.95</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>2.13</v>
+        <v>5.9</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>10/10/2023 14:12</t>
+          <t>09/10/2023 16:12</t>
         </is>
       </c>
       <c r="T89" t="n">
-        <v>2.18</v>
+        <v>4.95</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>23/10/2023 19:00</t>
+          <t>23/10/2023 18:58</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
         </is>
       </c>
     </row>
@@ -8669,71 +8669,71 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Trabzonspor</t>
+          <t>Karagumruk</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Adana Demirspor</t>
         </is>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.53</v>
+        <v>3.23</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.74</v>
+        <v>3.26</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>4.65</v>
+        <v>3.84</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.95</v>
+        <v>3.79</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>5.9</v>
+        <v>2.13</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>09/10/2023 16:12</t>
+          <t>10/10/2023 14:12</t>
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.95</v>
+        <v>2.18</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>23/10/2023 18:58</t>
+          <t>23/10/2023 19:00</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/trabzonspor-alanyaspor/YePZYda9/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/f-karagumruk-adanademirspor/jXZUZxp3/</t>
         </is>
       </c>
     </row>
@@ -8761,71 +8761,71 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G91" t="n">
+        <v>3</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
         <v>1</v>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Kayserispor</t>
-        </is>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
       <c r="J91" t="n">
-        <v>2.26</v>
+        <v>1.86</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="L91" t="n">
-        <v>2.49</v>
+        <v>1.96</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.55</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.42</v>
+        <v>3.71</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:59</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.26</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>22/10/2023 20:15</t>
+          <t>22/10/2023 15:12</t>
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.01</v>
+        <v>3.99</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
-          <t>27/10/2023 18:56</t>
+          <t>27/10/2023 18:58</t>
         </is>
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
         </is>
       </c>
     </row>
@@ -8853,71 +8853,71 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Istanbulspor AS</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J92" t="n">
-        <v>1.86</v>
+        <v>2.26</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.96</v>
+        <v>2.49</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.55</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.71</v>
+        <v>3.42</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:59</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>4.09</v>
+        <v>3.26</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>22/10/2023 15:12</t>
+          <t>22/10/2023 20:15</t>
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.99</v>
+        <v>3.01</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
-          <t>27/10/2023 18:58</t>
+          <t>27/10/2023 18:56</t>
         </is>
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/kasimpasa-istanbulspor-as/YJ7MPhMe/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-kayserispor/069EREiq/</t>
         </is>
       </c>
     </row>
@@ -15937,7 +15937,7 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G169" t="n">
@@ -15945,14 +15945,14 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Besiktas</t>
+          <t>Ankaragucu</t>
         </is>
       </c>
       <c r="I169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>3.85</v>
+        <v>2.83</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -15960,15 +15960,15 @@
         </is>
       </c>
       <c r="L169" t="n">
-        <v>2.7</v>
+        <v>3.13</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>25/12/2023 17:55</t>
+          <t>25/12/2023 17:58</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>3.75</v>
+        <v>3.42</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
@@ -15976,15 +15976,15 @@
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.61</v>
+        <v>3.42</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>25/12/2023 17:26</t>
+          <t>25/12/2023 17:59</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>1.94</v>
+        <v>2.53</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
@@ -15992,16 +15992,16 @@
         </is>
       </c>
       <c r="T169" t="n">
-        <v>2.64</v>
+        <v>2.4</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>25/12/2023 17:56</t>
+          <t>25/12/2023 17:58</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-besiktas/vgf0Lhm0/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-ankaragucu/hdb4KC26/</t>
         </is>
       </c>
     </row>
@@ -16029,7 +16029,7 @@
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="G170" t="n">
@@ -16037,14 +16037,14 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Ankaragucu</t>
+          <t>Besiktas</t>
         </is>
       </c>
       <c r="I170" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J170" t="n">
-        <v>2.83</v>
+        <v>3.85</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -16052,15 +16052,15 @@
         </is>
       </c>
       <c r="L170" t="n">
-        <v>3.13</v>
+        <v>2.7</v>
       </c>
       <c r="M170" t="inlineStr">
         <is>
-          <t>25/12/2023 17:58</t>
+          <t>25/12/2023 17:55</t>
         </is>
       </c>
       <c r="N170" t="n">
-        <v>3.42</v>
+        <v>3.75</v>
       </c>
       <c r="O170" t="inlineStr">
         <is>
@@ -16068,15 +16068,15 @@
         </is>
       </c>
       <c r="P170" t="n">
-        <v>3.42</v>
+        <v>3.61</v>
       </c>
       <c r="Q170" t="inlineStr">
         <is>
-          <t>25/12/2023 17:59</t>
+          <t>25/12/2023 17:26</t>
         </is>
       </c>
       <c r="R170" t="n">
-        <v>2.53</v>
+        <v>1.94</v>
       </c>
       <c r="S170" t="inlineStr">
         <is>
@@ -16084,16 +16084,16 @@
         </is>
       </c>
       <c r="T170" t="n">
-        <v>2.4</v>
+        <v>2.64</v>
       </c>
       <c r="U170" t="inlineStr">
         <is>
-          <t>25/12/2023 17:58</t>
+          <t>25/12/2023 17:56</t>
         </is>
       </c>
       <c r="V170" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/turkey/super-lig/pendikspor-ankaragucu/hdb4KC26/</t>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/hatayspor-besiktas/vgf0Lhm0/</t>
         </is>
       </c>
     </row>
@@ -16738,6 +16738,190 @@
       <c r="V177" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/turkey/super-lig/samsunspor-f-karagumruk/pQinVTGO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45298.47916666666</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Kayserispor</t>
+        </is>
+      </c>
+      <c r="G178" t="n">
+        <v>1</v>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Sivasspor</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>3</v>
+      </c>
+      <c r="J178" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="M178" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:29</t>
+        </is>
+      </c>
+      <c r="N178" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P178" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Q178" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:29</t>
+        </is>
+      </c>
+      <c r="R178" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="S178" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T178" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="U178" t="inlineStr">
+        <is>
+          <t>07/01/2024 11:29</t>
+        </is>
+      </c>
+      <c r="V178" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/kayserispor-sivasspor/Cz0ZXVW5/</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>turkey</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>super-lig</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45298.58333333334</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Istanbulspor AS</t>
+        </is>
+      </c>
+      <c r="G179" t="n">
+        <v>1</v>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>Fenerbahce</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>5</v>
+      </c>
+      <c r="J179" t="n">
+        <v>10.19</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="M179" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="N179" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="P179" t="n">
+        <v>8.48</v>
+      </c>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="R179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="S179" t="inlineStr">
+        <is>
+          <t>28/12/2024 19:12</t>
+        </is>
+      </c>
+      <c r="T179" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="U179" t="inlineStr">
+        <is>
+          <t>07/01/2024 13:59</t>
+        </is>
+      </c>
+      <c r="V179" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/turkey/super-lig/istanbulspor-as-fenerbahce/jRbwXknC/</t>
         </is>
       </c>
     </row>
